--- a/UnityProject/results_pilot2.xlsx
+++ b/UnityProject/results_pilot2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="132" windowWidth="30660" windowHeight="12708" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="24240" windowHeight="12705" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="time" sheetId="2" r:id="rId2"/>
+    <sheet name="time_cond" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
   <si>
     <t>userID</t>
   </si>
@@ -141,13 +142,49 @@
   </si>
   <si>
     <t>rep_1--amp_6--wav_800</t>
+  </si>
+  <si>
+    <t>Repetition 0</t>
+  </si>
+  <si>
+    <t>Repetition 1</t>
+  </si>
+  <si>
+    <t>Amplitude 0</t>
+  </si>
+  <si>
+    <t>Amplitude 12</t>
+  </si>
+  <si>
+    <t>Amplitude 24</t>
+  </si>
+  <si>
+    <t>Amplitude 6</t>
+  </si>
+  <si>
+    <t>WL 200</t>
+  </si>
+  <si>
+    <t>WL 100</t>
+  </si>
+  <si>
+    <t>WL 400</t>
+  </si>
+  <si>
+    <t>WL 50</t>
+  </si>
+  <si>
+    <t>WL 800</t>
+  </si>
+  <si>
+    <t>Amplitude 48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +711,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -752,6 +794,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -786,6 +829,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -961,479 +1005,3151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39:F43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="43" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="50" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:52">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="str">
+        <f>C1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="E1" t="str">
+        <f t="shared" ref="E1:AA1" si="0">D1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="F1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="O1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="Q1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="R1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="S1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="T1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="U1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="V1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="W1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="X1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="Y1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="Z1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="AA1" t="str">
+        <f t="shared" si="0"/>
+        <v>Repetition 0</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" t="str">
+        <f>AB1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AD1" t="str">
+        <f t="shared" ref="AD1:AZ1" si="1">AC1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AE1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AF1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AG1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AH1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AI1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AJ1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AK1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AL1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AM1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AN1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AO1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AP1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AQ1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AR1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AS1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AT1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AU1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AV1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AW1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AX1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AY1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AZ1" t="str">
+        <f t="shared" si="1"/>
+        <v>Repetition 1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="str">
+        <f>C2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:G2" si="2">D2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" si="2"/>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="2"/>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="str">
+        <f>H2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:L2" si="3">I2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" si="3"/>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" si="3"/>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="str">
+        <f>M2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:V2" si="4">N2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" si="4"/>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="Q2" t="str">
+        <f t="shared" si="4"/>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" t="str">
+        <f t="shared" si="4"/>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="T2" t="str">
+        <f t="shared" si="4"/>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="U2" t="str">
+        <f t="shared" si="4"/>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="V2" t="str">
+        <f t="shared" si="4"/>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="W2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" t="str">
+        <f>W2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="Y2" t="str">
+        <f t="shared" ref="Y2:AA2" si="5">X2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="Z2" t="str">
+        <f t="shared" si="5"/>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AA2" t="str">
+        <f t="shared" si="5"/>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>C2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AC2" t="str">
+        <f t="shared" ref="AC2:AZ2" si="6">D2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AD2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AE2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AF2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AG2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AH2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AI2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AJ2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AK2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AL2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AM2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AN2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AO2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AP2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AQ2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AR2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AS2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AT2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AU2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AV2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AW2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AX2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AY2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AZ2" t="str">
+        <f t="shared" si="6"/>
+        <v>Amplitude 6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="str">
+        <f>C3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:AZ3" si="7">D3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 400</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 50</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 800</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 100</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 200</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 400</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 50</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 800</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 100</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 200</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 400</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 50</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 800</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 100</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 200</v>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 400</v>
+      </c>
+      <c r="Z3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 50</v>
+      </c>
+      <c r="AA3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 800</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 100</v>
+      </c>
+      <c r="AC3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 200</v>
+      </c>
+      <c r="AD3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 400</v>
+      </c>
+      <c r="AE3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 50</v>
+      </c>
+      <c r="AF3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 800</v>
+      </c>
+      <c r="AG3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 100</v>
+      </c>
+      <c r="AH3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 200</v>
+      </c>
+      <c r="AI3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 400</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 50</v>
+      </c>
+      <c r="AK3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 800</v>
+      </c>
+      <c r="AL3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 100</v>
+      </c>
+      <c r="AM3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 200</v>
+      </c>
+      <c r="AN3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 400</v>
+      </c>
+      <c r="AO3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 50</v>
+      </c>
+      <c r="AP3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 800</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 100</v>
+      </c>
+      <c r="AR3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 200</v>
+      </c>
+      <c r="AS3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 400</v>
+      </c>
+      <c r="AT3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 50</v>
+      </c>
+      <c r="AU3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 800</v>
+      </c>
+      <c r="AV3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 100</v>
+      </c>
+      <c r="AW3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 200</v>
+      </c>
+      <c r="AX3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 400</v>
+      </c>
+      <c r="AY3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 50</v>
+      </c>
+      <c r="AZ3" t="str">
+        <f t="shared" si="7"/>
+        <v>WL 800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R4" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S4" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T4" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U4" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V4" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W4" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X4" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y4" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z4" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA4" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB4" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC4" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD4" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE4" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF4" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG4" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH4" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI4" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ4" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK4" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL4" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM4" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN4" t="s">
         <v>33</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO4" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP4" t="s">
         <v>34</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ4" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR4" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS4" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT4" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU4" t="s">
         <v>36</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV4" t="s">
         <v>37</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW4" t="s">
         <v>38</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX4" t="s">
         <v>39</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY4" t="s">
         <v>40</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
-      <c r="AL2">
-        <v>1</v>
-      </c>
-      <c r="AM2">
-        <v>1</v>
-      </c>
-      <c r="AN2">
-        <v>1</v>
-      </c>
-      <c r="AO2">
-        <v>1</v>
-      </c>
-      <c r="AP2">
-        <v>1</v>
-      </c>
-      <c r="AQ2">
-        <v>1</v>
-      </c>
-      <c r="AR2">
-        <v>1</v>
-      </c>
-      <c r="AS2">
-        <v>1</v>
-      </c>
-      <c r="AT2">
-        <v>1</v>
-      </c>
-      <c r="AU2">
-        <v>1</v>
-      </c>
-      <c r="AV2">
-        <v>1</v>
-      </c>
-      <c r="AW2">
-        <v>1</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>1</v>
-      </c>
-      <c r="AZ2">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:52">
-      <c r="A3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>1</v>
-      </c>
-      <c r="AM3">
-        <v>1</v>
-      </c>
-      <c r="AN3">
-        <v>1</v>
-      </c>
-      <c r="AO3">
-        <v>1</v>
-      </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
-      <c r="AQ3">
-        <v>1</v>
-      </c>
-      <c r="AR3">
-        <v>1</v>
-      </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
-      <c r="AT3">
-        <v>1</v>
-      </c>
-      <c r="AU3">
-        <v>1</v>
-      </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
-      <c r="AW3">
-        <v>1</v>
-      </c>
-      <c r="AX3">
-        <v>1</v>
-      </c>
-      <c r="AY3">
-        <v>1</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>C13+1</f>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:AZ13" si="8">D13+1</f>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <f>C2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ref="D16:AA16" si="9">D2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="9"/>
+        <v>Amplitude 6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C17" t="str">
+        <f>C3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" ref="D17:AA17" si="10">D3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 400</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 50</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 800</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 100</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 200</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 400</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 50</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 800</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 100</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 200</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 400</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 50</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 800</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 100</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 200</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 400</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 50</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 800</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 100</v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 200</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 400</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 50</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="10"/>
+        <v>WL 800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>A5</f>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(C5,AB5)</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:AA18" si="11">AVERAGE(D5,AC5)</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" ref="A19:A25" si="12">A6</f>
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f>AVERAGE(C6,AB6)</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19" si="13">AVERAGE(D6,AC6)</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19" si="14">AVERAGE(E6,AD6)</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19" si="15">AVERAGE(F6,AE6)</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19" si="16">AVERAGE(G6,AF6)</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19" si="17">AVERAGE(H6,AG6)</f>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19" si="18">AVERAGE(I6,AH6)</f>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19" si="19">AVERAGE(J6,AI6)</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19" si="20">AVERAGE(K6,AJ6)</f>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19" si="21">AVERAGE(L6,AK6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19" si="22">AVERAGE(M6,AL6)</f>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19" si="23">AVERAGE(N6,AM6)</f>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19" si="24">AVERAGE(O6,AN6)</f>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19" si="25">AVERAGE(P6,AO6)</f>
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19" si="26">AVERAGE(Q6,AP6)</f>
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19" si="27">AVERAGE(R6,AQ6)</f>
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ref="S19" si="28">AVERAGE(S6,AR6)</f>
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ref="T19" si="29">AVERAGE(T6,AS6)</f>
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ref="U19" si="30">AVERAGE(U6,AT6)</f>
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ref="V19" si="31">AVERAGE(V6,AU6)</f>
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ref="W19" si="32">AVERAGE(W6,AV6)</f>
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <f t="shared" ref="X19" si="33">AVERAGE(X6,AW6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" ref="Y19" si="34">AVERAGE(Y6,AX6)</f>
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" ref="Z19" si="35">AVERAGE(Z6,AY6)</f>
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" ref="AA19" si="36">AVERAGE(AA6,AZ6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f>AVERAGE(C18:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:AA29" si="37">AVERAGE(D18:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="37"/>
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="37"/>
+        <v>0.75</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="37"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="37"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C38" t="str">
+        <f>C16</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="D38" t="str">
+        <f>W16</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="E38" t="str">
+        <f>H16</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="F38" t="str">
+        <f>M16</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="G38" t="str">
+        <f>R16</f>
+        <v>Amplitude 48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="str">
+        <f>G17</f>
+        <v>WL 800</v>
+      </c>
+      <c r="C39">
+        <f>G29</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f>AA29</f>
+        <v>0.25</v>
+      </c>
+      <c r="E39">
+        <f>L29</f>
+        <v>0.5</v>
+      </c>
+      <c r="F39">
+        <f>Q29</f>
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f>V29</f>
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f>AVERAGE(C39:G39)</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="str">
+        <f>E17</f>
+        <v>WL 400</v>
+      </c>
+      <c r="C40">
+        <f>E29</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>Y29</f>
+        <v>0.75</v>
+      </c>
+      <c r="E40">
+        <f>I29</f>
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f>T29</f>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f>T29</f>
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40:I43" si="38">AVERAGE(C40:G40)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="str">
+        <f>D17</f>
+        <v>WL 200</v>
+      </c>
+      <c r="C41">
+        <f>D29</f>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f>X29</f>
+        <v>0.75</v>
+      </c>
+      <c r="E41">
+        <f>I29</f>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f>N29</f>
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f>S29</f>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="38"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="str">
+        <f>C17</f>
+        <v>WL 100</v>
+      </c>
+      <c r="C42">
+        <f>C29</f>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f>W29</f>
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f>H29</f>
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <f>M29</f>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f>R29</f>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="38"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="str">
+        <f>F17</f>
+        <v>WL 50</v>
+      </c>
+      <c r="C43">
+        <f>F29</f>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f>Z29</f>
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f>K29</f>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f>P29</f>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f>P29</f>
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="38"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f>AVERAGE(C39:C43)</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:G45" si="39">AVERAGE(D39:D43)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="39"/>
+        <v>0.9</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C39:G43 C45:G45 I39:I43">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="C1" t="str">
+        <f>target!C1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="D1" t="str">
+        <f>target!D1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="E1" t="str">
+        <f>target!E1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="F1" t="str">
+        <f>target!F1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="G1" t="str">
+        <f>target!G1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="H1" t="str">
+        <f>target!H1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="I1" t="str">
+        <f>target!I1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="J1" t="str">
+        <f>target!J1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="K1" t="str">
+        <f>target!K1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="L1" t="str">
+        <f>target!L1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="M1" t="str">
+        <f>target!M1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="N1" t="str">
+        <f>target!N1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="O1" t="str">
+        <f>target!O1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="P1" t="str">
+        <f>target!P1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>target!Q1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="R1" t="str">
+        <f>target!R1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="S1" t="str">
+        <f>target!S1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="T1" t="str">
+        <f>target!T1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="U1" t="str">
+        <f>target!U1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="V1" t="str">
+        <f>target!V1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="W1" t="str">
+        <f>target!W1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="X1" t="str">
+        <f>target!X1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="Y1" t="str">
+        <f>target!Y1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="Z1" t="str">
+        <f>target!Z1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="AA1" t="str">
+        <f>target!AA1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="AB1" t="str">
+        <f>target!AB1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AC1" t="str">
+        <f>target!AC1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AD1" t="str">
+        <f>target!AD1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AE1" t="str">
+        <f>target!AE1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AF1" t="str">
+        <f>target!AF1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AG1" t="str">
+        <f>target!AG1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AH1" t="str">
+        <f>target!AH1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AI1" t="str">
+        <f>target!AI1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AJ1" t="str">
+        <f>target!AJ1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AK1" t="str">
+        <f>target!AK1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AL1" t="str">
+        <f>target!AL1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AM1" t="str">
+        <f>target!AM1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AN1" t="str">
+        <f>target!AN1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AO1" t="str">
+        <f>target!AO1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AP1" t="str">
+        <f>target!AP1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AQ1" t="str">
+        <f>target!AQ1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AR1" t="str">
+        <f>target!AR1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AS1" t="str">
+        <f>target!AS1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AT1" t="str">
+        <f>target!AT1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AU1" t="str">
+        <f>target!AU1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AV1" t="str">
+        <f>target!AV1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AW1" t="str">
+        <f>target!AW1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AX1" t="str">
+        <f>target!AX1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AY1" t="str">
+        <f>target!AY1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AZ1" t="str">
+        <f>target!AZ1</f>
+        <v>Repetition 1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f>target!C2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="D2" t="str">
+        <f>target!D2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="E2" t="str">
+        <f>target!E2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="F2" t="str">
+        <f>target!F2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="G2" t="str">
+        <f>target!G2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="H2" t="str">
+        <f>target!H2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="I2" t="str">
+        <f>target!I2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="J2" t="str">
+        <f>target!J2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="K2" t="str">
+        <f>target!K2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="L2" t="str">
+        <f>target!L2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="M2" t="str">
+        <f>target!M2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="N2" t="str">
+        <f>target!N2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="O2" t="str">
+        <f>target!O2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="P2" t="str">
+        <f>target!P2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>target!Q2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="R2" t="str">
+        <f>target!R2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="S2" t="str">
+        <f>target!S2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="T2" t="str">
+        <f>target!T2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="U2" t="str">
+        <f>target!U2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="V2" t="str">
+        <f>target!V2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="W2" t="str">
+        <f>target!W2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="X2" t="str">
+        <f>target!X2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="Y2" t="str">
+        <f>target!Y2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="Z2" t="str">
+        <f>target!Z2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AA2" t="str">
+        <f>target!AA2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>target!AB2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AC2" t="str">
+        <f>target!AC2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AD2" t="str">
+        <f>target!AD2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AE2" t="str">
+        <f>target!AE2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AF2" t="str">
+        <f>target!AF2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AG2" t="str">
+        <f>target!AG2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AH2" t="str">
+        <f>target!AH2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AI2" t="str">
+        <f>target!AI2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AJ2" t="str">
+        <f>target!AJ2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AK2" t="str">
+        <f>target!AK2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AL2" t="str">
+        <f>target!AL2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AM2" t="str">
+        <f>target!AM2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AN2" t="str">
+        <f>target!AN2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AO2" t="str">
+        <f>target!AO2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AP2" t="str">
+        <f>target!AP2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AQ2" t="str">
+        <f>target!AQ2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AR2" t="str">
+        <f>target!AR2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AS2" t="str">
+        <f>target!AS2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AT2" t="str">
+        <f>target!AT2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AU2" t="str">
+        <f>target!AU2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AV2" t="str">
+        <f>target!AV2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AW2" t="str">
+        <f>target!AW2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AX2" t="str">
+        <f>target!AX2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AY2" t="str">
+        <f>target!AY2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AZ2" t="str">
+        <f>target!AZ2</f>
+        <v>Amplitude 6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f>target!C3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="D3" t="str">
+        <f>target!D3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="E3" t="str">
+        <f>target!E3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="F3" t="str">
+        <f>target!F3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="G3" t="str">
+        <f>target!G3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="H3" t="str">
+        <f>target!H3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="I3" t="str">
+        <f>target!I3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="J3" t="str">
+        <f>target!J3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="K3" t="str">
+        <f>target!K3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="L3" t="str">
+        <f>target!L3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="M3" t="str">
+        <f>target!M3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="N3" t="str">
+        <f>target!N3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="O3" t="str">
+        <f>target!O3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="P3" t="str">
+        <f>target!P3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>target!Q3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="R3" t="str">
+        <f>target!R3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="S3" t="str">
+        <f>target!S3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="T3" t="str">
+        <f>target!T3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="U3" t="str">
+        <f>target!U3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="V3" t="str">
+        <f>target!V3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="W3" t="str">
+        <f>target!W3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="X3" t="str">
+        <f>target!X3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="Y3" t="str">
+        <f>target!Y3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="Z3" t="str">
+        <f>target!Z3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AA3" t="str">
+        <f>target!AA3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AB3" t="str">
+        <f>target!AB3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AC3" t="str">
+        <f>target!AC3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AD3" t="str">
+        <f>target!AD3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AE3" t="str">
+        <f>target!AE3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AF3" t="str">
+        <f>target!AF3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AG3" t="str">
+        <f>target!AG3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AH3" t="str">
+        <f>target!AH3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AI3" t="str">
+        <f>target!AI3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f>target!AJ3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AK3" t="str">
+        <f>target!AK3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AL3" t="str">
+        <f>target!AL3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AM3" t="str">
+        <f>target!AM3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AN3" t="str">
+        <f>target!AN3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AO3" t="str">
+        <f>target!AO3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AP3" t="str">
+        <f>target!AP3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f>target!AQ3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AR3" t="str">
+        <f>target!AR3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AS3" t="str">
+        <f>target!AS3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AT3" t="str">
+        <f>target!AT3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AU3" t="str">
+        <f>target!AU3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AV3" t="str">
+        <f>target!AV3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AW3" t="str">
+        <f>target!AW3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AX3" t="str">
+        <f>target!AX3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AY3" t="str">
+        <f>target!AY3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AZ3" t="str">
+        <f>target!AZ3</f>
+        <v>WL 800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>6334</v>
+      </c>
+      <c r="D5">
+        <v>9775</v>
+      </c>
+      <c r="E5">
+        <v>6776</v>
+      </c>
+      <c r="F5">
+        <v>5981</v>
+      </c>
+      <c r="G5">
+        <v>12667</v>
+      </c>
+      <c r="H5">
+        <v>911</v>
+      </c>
+      <c r="I5">
+        <v>663</v>
+      </c>
+      <c r="J5">
+        <v>2850</v>
+      </c>
+      <c r="K5">
+        <v>746</v>
+      </c>
+      <c r="L5">
+        <v>6152</v>
+      </c>
+      <c r="M5">
+        <v>580</v>
+      </c>
+      <c r="N5">
+        <v>454</v>
+      </c>
+      <c r="O5">
+        <v>928</v>
+      </c>
+      <c r="P5">
+        <v>796</v>
+      </c>
+      <c r="Q5">
+        <v>1148</v>
+      </c>
+      <c r="R5">
+        <v>961</v>
+      </c>
+      <c r="S5">
+        <v>735</v>
+      </c>
+      <c r="T5">
+        <v>613</v>
+      </c>
+      <c r="U5">
+        <v>5384</v>
+      </c>
+      <c r="V5">
+        <v>613</v>
+      </c>
+      <c r="W5">
+        <v>1149</v>
+      </c>
+      <c r="X5">
+        <v>845</v>
+      </c>
+      <c r="Y5">
+        <v>2813</v>
+      </c>
+      <c r="Z5">
+        <v>862</v>
+      </c>
+      <c r="AA5">
+        <v>2159</v>
+      </c>
+      <c r="AB5">
+        <v>2878</v>
+      </c>
+      <c r="AC5">
+        <v>6070</v>
+      </c>
+      <c r="AD5">
+        <v>7108</v>
+      </c>
+      <c r="AE5">
+        <v>5302</v>
+      </c>
+      <c r="AF5">
+        <v>7393</v>
+      </c>
+      <c r="AG5">
+        <v>862</v>
+      </c>
+      <c r="AH5">
+        <v>1110</v>
+      </c>
+      <c r="AI5">
+        <v>1757</v>
+      </c>
+      <c r="AJ5">
+        <v>619</v>
+      </c>
+      <c r="AK5">
+        <v>2319</v>
+      </c>
+      <c r="AL5">
+        <v>779</v>
+      </c>
+      <c r="AM5">
+        <v>514</v>
+      </c>
+      <c r="AN5">
+        <v>415</v>
+      </c>
+      <c r="AO5">
+        <v>928</v>
+      </c>
+      <c r="AP5">
+        <v>928</v>
+      </c>
+      <c r="AQ5">
+        <v>829</v>
+      </c>
+      <c r="AR5">
+        <v>464</v>
+      </c>
+      <c r="AS5">
+        <v>746</v>
+      </c>
+      <c r="AT5">
+        <v>1640</v>
+      </c>
+      <c r="AU5">
+        <v>1094</v>
+      </c>
+      <c r="AV5">
+        <v>1707</v>
+      </c>
+      <c r="AW5">
+        <v>911</v>
+      </c>
+      <c r="AX5">
+        <v>7340</v>
+      </c>
+      <c r="AY5">
+        <v>2585</v>
+      </c>
+      <c r="AZ5">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>25011</v>
+      </c>
+      <c r="D6">
+        <v>25004</v>
+      </c>
+      <c r="E6">
+        <v>25014</v>
+      </c>
+      <c r="F6">
+        <v>25005</v>
+      </c>
+      <c r="G6">
+        <v>25010</v>
+      </c>
+      <c r="H6">
+        <v>1047</v>
+      </c>
+      <c r="I6">
+        <v>2170</v>
+      </c>
+      <c r="J6">
+        <v>5972</v>
+      </c>
+      <c r="K6">
+        <v>1044</v>
+      </c>
+      <c r="L6">
+        <v>8498</v>
+      </c>
+      <c r="M6">
+        <v>1213</v>
+      </c>
+      <c r="N6">
+        <v>1127</v>
+      </c>
+      <c r="O6">
+        <v>911</v>
+      </c>
+      <c r="P6">
+        <v>1359</v>
+      </c>
+      <c r="Q6">
+        <v>1524</v>
+      </c>
+      <c r="R6">
+        <v>1955</v>
+      </c>
+      <c r="S6">
+        <v>796</v>
+      </c>
+      <c r="T6">
+        <v>1061</v>
+      </c>
+      <c r="U6">
+        <v>837</v>
+      </c>
+      <c r="V6">
+        <v>10454</v>
+      </c>
+      <c r="W6">
+        <v>2374</v>
+      </c>
+      <c r="X6">
+        <v>11269</v>
+      </c>
+      <c r="Y6">
+        <v>15666</v>
+      </c>
+      <c r="Z6">
+        <v>796</v>
+      </c>
+      <c r="AA6">
+        <v>25011</v>
+      </c>
+      <c r="AB6">
+        <v>25008</v>
+      </c>
+      <c r="AC6">
+        <v>25003</v>
+      </c>
+      <c r="AD6">
+        <v>25011</v>
+      </c>
+      <c r="AE6">
+        <v>25013</v>
+      </c>
+      <c r="AF6">
+        <v>25005</v>
+      </c>
+      <c r="AG6">
+        <v>531</v>
+      </c>
+      <c r="AH6">
+        <v>2060</v>
+      </c>
+      <c r="AI6">
+        <v>3280</v>
+      </c>
+      <c r="AJ6">
+        <v>1176</v>
+      </c>
+      <c r="AK6">
+        <v>25015</v>
+      </c>
+      <c r="AL6">
+        <v>2021</v>
+      </c>
+      <c r="AM6">
+        <v>1458</v>
+      </c>
+      <c r="AN6">
+        <v>646</v>
+      </c>
+      <c r="AO6">
+        <v>1127</v>
+      </c>
+      <c r="AP6">
+        <v>1541</v>
+      </c>
+      <c r="AQ6">
+        <v>950</v>
+      </c>
+      <c r="AR6">
+        <v>784</v>
+      </c>
+      <c r="AS6">
+        <v>564</v>
+      </c>
+      <c r="AT6">
+        <v>4275</v>
+      </c>
+      <c r="AU6">
+        <v>1806</v>
+      </c>
+      <c r="AV6">
+        <v>713</v>
+      </c>
+      <c r="AW6">
+        <v>1956</v>
+      </c>
+      <c r="AX6">
+        <v>4841</v>
+      </c>
+      <c r="AY6">
+        <v>1332</v>
+      </c>
+      <c r="AZ6">
+        <v>25010</v>
       </c>
     </row>
   </sheetData>
@@ -1441,482 +4157,620 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ3"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:AZ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:52">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>41</v>
+    <row r="1" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="C1" t="str">
+        <f>time!C1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="D1" t="str">
+        <f>time!D1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="E1" t="str">
+        <f>time!E1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="F1" t="str">
+        <f>time!F1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="G1" t="str">
+        <f>time!G1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="H1" t="str">
+        <f>time!H1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="I1" t="str">
+        <f>time!I1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="J1" t="str">
+        <f>time!J1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="K1" t="str">
+        <f>time!K1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="L1" t="str">
+        <f>time!L1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="M1" t="str">
+        <f>time!M1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="N1" t="str">
+        <f>time!N1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="O1" t="str">
+        <f>time!O1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="P1" t="str">
+        <f>time!P1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>time!Q1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="R1" t="str">
+        <f>time!R1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="S1" t="str">
+        <f>time!S1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="T1" t="str">
+        <f>time!T1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="U1" t="str">
+        <f>time!U1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="V1" t="str">
+        <f>time!V1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="W1" t="str">
+        <f>time!W1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="X1" t="str">
+        <f>time!X1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="Y1" t="str">
+        <f>time!Y1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="Z1" t="str">
+        <f>time!Z1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="AA1" t="str">
+        <f>time!AA1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="AB1" t="str">
+        <f>time!AB1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AC1" t="str">
+        <f>time!AC1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AD1" t="str">
+        <f>time!AD1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AE1" t="str">
+        <f>time!AE1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AF1" t="str">
+        <f>time!AF1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AG1" t="str">
+        <f>time!AG1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AH1" t="str">
+        <f>time!AH1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AI1" t="str">
+        <f>time!AI1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AJ1" t="str">
+        <f>time!AJ1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AK1" t="str">
+        <f>time!AK1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AL1" t="str">
+        <f>time!AL1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AM1" t="str">
+        <f>time!AM1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AN1" t="str">
+        <f>time!AN1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AO1" t="str">
+        <f>time!AO1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AP1" t="str">
+        <f>time!AP1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AQ1" t="str">
+        <f>time!AQ1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AR1" t="str">
+        <f>time!AR1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AS1" t="str">
+        <f>time!AS1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AT1" t="str">
+        <f>time!AT1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AU1" t="str">
+        <f>time!AU1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AV1" t="str">
+        <f>time!AV1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AW1" t="str">
+        <f>time!AW1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AX1" t="str">
+        <f>time!AX1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AY1" t="str">
+        <f>time!AY1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AZ1" t="str">
+        <f>time!AZ1</f>
+        <v>Repetition 1</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>6334</v>
-      </c>
-      <c r="D2">
-        <v>9775</v>
-      </c>
-      <c r="E2">
-        <v>6776</v>
-      </c>
-      <c r="F2">
-        <v>5981</v>
-      </c>
-      <c r="G2">
-        <v>12667</v>
-      </c>
-      <c r="H2">
-        <v>911</v>
-      </c>
-      <c r="I2">
-        <v>663</v>
-      </c>
-      <c r="J2">
-        <v>2850</v>
-      </c>
-      <c r="K2">
-        <v>746</v>
-      </c>
-      <c r="L2">
-        <v>6152</v>
-      </c>
-      <c r="M2">
-        <v>580</v>
-      </c>
-      <c r="N2">
-        <v>454</v>
-      </c>
-      <c r="O2">
-        <v>928</v>
-      </c>
-      <c r="P2">
-        <v>796</v>
-      </c>
-      <c r="Q2">
-        <v>1148</v>
-      </c>
-      <c r="R2">
-        <v>961</v>
-      </c>
-      <c r="S2">
-        <v>735</v>
-      </c>
-      <c r="T2">
-        <v>613</v>
-      </c>
-      <c r="U2">
-        <v>5384</v>
-      </c>
-      <c r="V2">
-        <v>613</v>
-      </c>
-      <c r="W2">
-        <v>1149</v>
-      </c>
-      <c r="X2">
-        <v>845</v>
-      </c>
-      <c r="Y2">
-        <v>2813</v>
-      </c>
-      <c r="Z2">
-        <v>862</v>
-      </c>
-      <c r="AA2">
-        <v>2159</v>
-      </c>
-      <c r="AB2">
-        <v>2878</v>
-      </c>
-      <c r="AC2">
-        <v>6070</v>
-      </c>
-      <c r="AD2">
-        <v>7108</v>
-      </c>
-      <c r="AE2">
-        <v>5302</v>
-      </c>
-      <c r="AF2">
-        <v>7393</v>
-      </c>
-      <c r="AG2">
-        <v>862</v>
-      </c>
-      <c r="AH2">
-        <v>1110</v>
-      </c>
-      <c r="AI2">
-        <v>1757</v>
-      </c>
-      <c r="AJ2">
-        <v>619</v>
-      </c>
-      <c r="AK2">
-        <v>2319</v>
-      </c>
-      <c r="AL2">
-        <v>779</v>
-      </c>
-      <c r="AM2">
-        <v>514</v>
-      </c>
-      <c r="AN2">
-        <v>415</v>
-      </c>
-      <c r="AO2">
-        <v>928</v>
-      </c>
-      <c r="AP2">
-        <v>928</v>
-      </c>
-      <c r="AQ2">
-        <v>829</v>
-      </c>
-      <c r="AR2">
-        <v>464</v>
-      </c>
-      <c r="AS2">
-        <v>746</v>
-      </c>
-      <c r="AT2">
-        <v>1640</v>
-      </c>
-      <c r="AU2">
-        <v>1094</v>
-      </c>
-      <c r="AV2">
-        <v>1707</v>
-      </c>
-      <c r="AW2">
-        <v>911</v>
-      </c>
-      <c r="AX2">
-        <v>7340</v>
-      </c>
-      <c r="AY2">
-        <v>2585</v>
-      </c>
-      <c r="AZ2">
-        <v>2187</v>
+    <row r="2" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f>time!C2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="D2" t="str">
+        <f>time!D2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="E2" t="str">
+        <f>time!E2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="F2" t="str">
+        <f>time!F2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="G2" t="str">
+        <f>time!G2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="H2" t="str">
+        <f>time!H2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="I2" t="str">
+        <f>time!I2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="J2" t="str">
+        <f>time!J2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="K2" t="str">
+        <f>time!K2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="L2" t="str">
+        <f>time!L2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="M2" t="str">
+        <f>time!M2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="N2" t="str">
+        <f>time!N2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="O2" t="str">
+        <f>time!O2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="P2" t="str">
+        <f>time!P2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>time!Q2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="R2" t="str">
+        <f>time!R2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="S2" t="str">
+        <f>time!S2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="T2" t="str">
+        <f>time!T2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="U2" t="str">
+        <f>time!U2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="V2" t="str">
+        <f>time!V2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="W2" t="str">
+        <f>time!W2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="X2" t="str">
+        <f>time!X2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="Y2" t="str">
+        <f>time!Y2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="Z2" t="str">
+        <f>time!Z2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AA2" t="str">
+        <f>time!AA2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>time!AB2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AC2" t="str">
+        <f>time!AC2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AD2" t="str">
+        <f>time!AD2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AE2" t="str">
+        <f>time!AE2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AF2" t="str">
+        <f>time!AF2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AG2" t="str">
+        <f>time!AG2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AH2" t="str">
+        <f>time!AH2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AI2" t="str">
+        <f>time!AI2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AJ2" t="str">
+        <f>time!AJ2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AK2" t="str">
+        <f>time!AK2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AL2" t="str">
+        <f>time!AL2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AM2" t="str">
+        <f>time!AM2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AN2" t="str">
+        <f>time!AN2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AO2" t="str">
+        <f>time!AO2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AP2" t="str">
+        <f>time!AP2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AQ2" t="str">
+        <f>time!AQ2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AR2" t="str">
+        <f>time!AR2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AS2" t="str">
+        <f>time!AS2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AT2" t="str">
+        <f>time!AT2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AU2" t="str">
+        <f>time!AU2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AV2" t="str">
+        <f>time!AV2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AW2" t="str">
+        <f>time!AW2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AX2" t="str">
+        <f>time!AX2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AY2" t="str">
+        <f>time!AY2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AZ2" t="str">
+        <f>time!AZ2</f>
+        <v>Amplitude 6</v>
       </c>
     </row>
-    <row r="3" spans="1:52">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>25011</v>
-      </c>
-      <c r="D3">
-        <v>25004</v>
-      </c>
-      <c r="E3">
-        <v>25014</v>
-      </c>
-      <c r="F3">
-        <v>25005</v>
-      </c>
-      <c r="G3">
-        <v>25010</v>
-      </c>
-      <c r="H3">
-        <v>1047</v>
-      </c>
-      <c r="I3">
-        <v>2170</v>
-      </c>
-      <c r="J3">
-        <v>5972</v>
-      </c>
-      <c r="K3">
-        <v>1044</v>
-      </c>
-      <c r="L3">
-        <v>8498</v>
-      </c>
-      <c r="M3">
-        <v>1213</v>
-      </c>
-      <c r="N3">
-        <v>1127</v>
-      </c>
-      <c r="O3">
-        <v>911</v>
-      </c>
-      <c r="P3">
-        <v>1359</v>
-      </c>
-      <c r="Q3">
-        <v>1524</v>
-      </c>
-      <c r="R3">
-        <v>1955</v>
-      </c>
-      <c r="S3">
-        <v>796</v>
-      </c>
-      <c r="T3">
-        <v>1061</v>
-      </c>
-      <c r="U3">
-        <v>837</v>
-      </c>
-      <c r="V3">
-        <v>10454</v>
-      </c>
-      <c r="W3">
-        <v>2374</v>
-      </c>
-      <c r="X3">
-        <v>11269</v>
-      </c>
-      <c r="Y3">
-        <v>15666</v>
-      </c>
-      <c r="Z3">
-        <v>796</v>
-      </c>
-      <c r="AA3">
-        <v>25011</v>
-      </c>
-      <c r="AB3">
-        <v>25008</v>
-      </c>
-      <c r="AC3">
-        <v>25003</v>
-      </c>
-      <c r="AD3">
-        <v>25011</v>
-      </c>
-      <c r="AE3">
-        <v>25013</v>
-      </c>
-      <c r="AF3">
-        <v>25005</v>
-      </c>
-      <c r="AG3">
-        <v>531</v>
-      </c>
-      <c r="AH3">
-        <v>2060</v>
-      </c>
-      <c r="AI3">
-        <v>3280</v>
-      </c>
-      <c r="AJ3">
-        <v>1176</v>
-      </c>
-      <c r="AK3">
-        <v>25015</v>
-      </c>
-      <c r="AL3">
-        <v>2021</v>
-      </c>
-      <c r="AM3">
-        <v>1458</v>
-      </c>
-      <c r="AN3">
-        <v>646</v>
-      </c>
-      <c r="AO3">
-        <v>1127</v>
-      </c>
-      <c r="AP3">
-        <v>1541</v>
-      </c>
-      <c r="AQ3">
-        <v>950</v>
-      </c>
-      <c r="AR3">
-        <v>784</v>
-      </c>
-      <c r="AS3">
-        <v>564</v>
-      </c>
-      <c r="AT3">
-        <v>4275</v>
-      </c>
-      <c r="AU3">
-        <v>1806</v>
-      </c>
-      <c r="AV3">
-        <v>713</v>
-      </c>
-      <c r="AW3">
-        <v>1956</v>
-      </c>
-      <c r="AX3">
-        <v>4841</v>
-      </c>
-      <c r="AY3">
-        <v>1332</v>
-      </c>
-      <c r="AZ3">
-        <v>25010</v>
+    <row r="3" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f>time!C3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="D3" t="str">
+        <f>time!D3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="E3" t="str">
+        <f>time!E3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="F3" t="str">
+        <f>time!F3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="G3" t="str">
+        <f>time!G3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="H3" t="str">
+        <f>time!H3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="I3" t="str">
+        <f>time!I3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="J3" t="str">
+        <f>time!J3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="K3" t="str">
+        <f>time!K3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="L3" t="str">
+        <f>time!L3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="M3" t="str">
+        <f>time!M3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="N3" t="str">
+        <f>time!N3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="O3" t="str">
+        <f>time!O3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="P3" t="str">
+        <f>time!P3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>time!Q3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="R3" t="str">
+        <f>time!R3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="S3" t="str">
+        <f>time!S3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="T3" t="str">
+        <f>time!T3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="U3" t="str">
+        <f>time!U3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="V3" t="str">
+        <f>time!V3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="W3" t="str">
+        <f>time!W3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="X3" t="str">
+        <f>time!X3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="Y3" t="str">
+        <f>time!Y3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="Z3" t="str">
+        <f>time!Z3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AA3" t="str">
+        <f>time!AA3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AB3" t="str">
+        <f>time!AB3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AC3" t="str">
+        <f>time!AC3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AD3" t="str">
+        <f>time!AD3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AE3" t="str">
+        <f>time!AE3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AF3" t="str">
+        <f>time!AF3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AG3" t="str">
+        <f>time!AG3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AH3" t="str">
+        <f>time!AH3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AI3" t="str">
+        <f>time!AI3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f>time!AJ3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AK3" t="str">
+        <f>time!AK3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AL3" t="str">
+        <f>time!AL3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AM3" t="str">
+        <f>time!AM3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AN3" t="str">
+        <f>time!AN3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AO3" t="str">
+        <f>time!AO3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AP3" t="str">
+        <f>time!AP3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f>time!AQ3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AR3" t="str">
+        <f>time!AR3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AS3" t="str">
+        <f>time!AS3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AT3" t="str">
+        <f>time!AT3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AU3" t="str">
+        <f>time!AU3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AV3" t="str">
+        <f>time!AV3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AW3" t="str">
+        <f>time!AW3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AX3" t="str">
+        <f>time!AX3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AY3" t="str">
+        <f>time!AY3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AZ3" t="str">
+        <f>time!AZ3</f>
+        <v>WL 800</v>
       </c>
     </row>
   </sheetData>

--- a/UnityProject/results_pilot2.xlsx
+++ b/UnityProject/results_pilot2.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="24240" windowHeight="12705" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="132" windowWidth="24240" windowHeight="12708" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
     <sheet name="time" sheetId="2" r:id="rId2"/>
     <sheet name="time_cond" sheetId="3" r:id="rId3"/>
+    <sheet name="annoyance" sheetId="4" r:id="rId4"/>
+    <sheet name="annoyance_cond" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -183,8 +185,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,7 +796,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -829,7 +830,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1005,42 +1005,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:F43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="43" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="50" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="43" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="50" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52">
       <c r="C1" t="s">
         <v>42</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>Repetition 1</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52">
       <c r="C2" t="s">
         <v>44</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>Amplitude 6</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52">
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>WL 800</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2102,7 +2102,162 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
       <c r="C13">
         <v>1</v>
       </c>
@@ -2303,7 +2458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52">
       <c r="C16" t="str">
         <f>C2</f>
         <v>Amplitude 0</v>
@@ -2405,7 +2560,7 @@
         <v>Amplitude 6</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27">
       <c r="C17" t="str">
         <f>C3</f>
         <v>WL 100</v>
@@ -2507,7 +2662,7 @@
         <v>WL 800</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27">
       <c r="A18">
         <f>A5</f>
         <v>1</v>
@@ -2613,7 +2768,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27">
       <c r="A19">
         <f t="shared" ref="A19:A25" si="12">A6</f>
         <v>2</v>
@@ -2719,145 +2874,245 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27">
       <c r="A20">
         <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C7,AB7)</f>
         <v>0</v>
       </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="37">AVERAGE(D7,AC7)</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20" si="38">AVERAGE(E7,AD7)</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20" si="39">AVERAGE(F7,AE7)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20" si="40">AVERAGE(G7,AF7)</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20" si="41">AVERAGE(H7,AG7)</f>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20" si="42">AVERAGE(I7,AH7)</f>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20" si="43">AVERAGE(J7,AI7)</f>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20" si="44">AVERAGE(K7,AJ7)</f>
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20" si="45">AVERAGE(L7,AK7)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20" si="46">AVERAGE(M7,AL7)</f>
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20" si="47">AVERAGE(N7,AM7)</f>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20" si="48">AVERAGE(O7,AN7)</f>
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20" si="49">AVERAGE(P7,AO7)</f>
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ref="Q20" si="50">AVERAGE(Q7,AP7)</f>
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <f t="shared" ref="R20" si="51">AVERAGE(R7,AQ7)</f>
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <f t="shared" ref="S20" si="52">AVERAGE(S7,AR7)</f>
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ref="T20" si="53">AVERAGE(T7,AS7)</f>
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ref="U20" si="54">AVERAGE(U7,AT7)</f>
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ref="V20" si="55">AVERAGE(V7,AU7)</f>
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ref="W20" si="56">AVERAGE(W7,AV7)</f>
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ref="X20" si="57">AVERAGE(X7,AW7)</f>
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" ref="Y20" si="58">AVERAGE(Y7,AX7)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" ref="Z20" si="59">AVERAGE(Z7,AY7)</f>
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" ref="AA20" si="60">AVERAGE(AA7,AZ7)</f>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27">
       <c r="A21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27">
       <c r="A22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27">
       <c r="A23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27">
       <c r="A24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27">
       <c r="A25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27">
       <c r="C29">
-        <f>AVERAGE(C18:C25)</f>
+        <f>AVERAGE(C20:C25)</f>
         <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:AA29" si="37">AVERAGE(D18:D25)</f>
+        <f t="shared" ref="D29:AA29" si="61">AVERAGE(D20:D25)</f>
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="I29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="J29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="K29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="L29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
       <c r="M29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="N29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="O29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="P29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="R29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="S29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="T29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="U29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="V29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="W29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="X29">
-        <f t="shared" si="37"/>
-        <v>0.75</v>
+        <f t="shared" si="61"/>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="37"/>
-        <v>0.75</v>
+        <f t="shared" si="61"/>
+        <v>0.5</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="37"/>
-        <v>0.25</v>
+        <f t="shared" si="61"/>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9">
       <c r="C38" t="str">
         <f>C16</f>
         <v>Amplitude 0</v>
@@ -2879,7 +3134,7 @@
         <v>Amplitude 48</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f>G17</f>
         <v>WL 800</v>
@@ -2890,7 +3145,7 @@
       </c>
       <c r="D39">
         <f>AA29</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E39">
         <f>L29</f>
@@ -2906,10 +3161,10 @@
       </c>
       <c r="I39">
         <f>AVERAGE(C39:G39)</f>
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f>E17</f>
         <v>WL 400</v>
@@ -2920,7 +3175,7 @@
       </c>
       <c r="D40">
         <f>Y29</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E40">
         <f>I29</f>
@@ -2935,11 +3190,11 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <f t="shared" ref="I40:I43" si="38">AVERAGE(C40:G40)</f>
-        <v>0.75</v>
+        <f t="shared" ref="I40:I43" si="62">AVERAGE(C40:G40)</f>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f>D17</f>
         <v>WL 200</v>
@@ -2950,7 +3205,7 @@
       </c>
       <c r="D41">
         <f>X29</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <f>I29</f>
@@ -2965,11 +3220,11 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <f t="shared" si="38"/>
-        <v>0.75</v>
+        <f t="shared" si="62"/>
+        <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f>C17</f>
         <v>WL 100</v>
@@ -2995,11 +3250,11 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="62"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f>F17</f>
         <v>WL 50</v>
@@ -3025,29 +3280,29 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <f t="shared" si="38"/>
+        <f t="shared" si="62"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9">
       <c r="C45">
         <f>AVERAGE(C39:C43)</f>
         <v>0</v>
       </c>
       <c r="D45">
-        <f t="shared" ref="D45:G45" si="39">AVERAGE(D39:D43)</f>
-        <v>0.75</v>
+        <f t="shared" ref="D45:G45" si="63">AVERAGE(D39:D43)</f>
+        <v>0.8</v>
       </c>
       <c r="E45">
-        <f t="shared" si="39"/>
+        <f t="shared" si="63"/>
         <v>0.9</v>
       </c>
       <c r="F45">
-        <f t="shared" si="39"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="G45">
-        <f t="shared" si="39"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
     </row>
@@ -3055,9 +3310,9 @@
   <conditionalFormatting sqref="C39:G43 C45:G45 I39:I43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3069,16 +3324,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AZ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="43" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="50" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52">
       <c r="C1" t="str">
         <f>target!C1</f>
         <v>Repetition 0</v>
@@ -3280,7 +3560,7 @@
         <v>Repetition 1</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52">
       <c r="C2" t="str">
         <f>target!C2</f>
         <v>Amplitude 0</v>
@@ -3482,7 +3762,7 @@
         <v>Amplitude 6</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52">
       <c r="C3" t="str">
         <f>target!C3</f>
         <v>WL 100</v>
@@ -3684,7 +3964,7 @@
         <v>WL 800</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3842,8 +4122,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52">
       <c r="A5">
+        <f>target!A5</f>
         <v>1</v>
       </c>
       <c r="C5">
@@ -3997,8 +4278,9 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52">
       <c r="A6">
+        <f>target!A6</f>
         <v>2</v>
       </c>
       <c r="C6">
@@ -4150,6 +4432,162 @@
       </c>
       <c r="AZ6">
         <v>25010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="A7">
+        <f>target!A7</f>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>7261</v>
+      </c>
+      <c r="D7">
+        <v>6677</v>
+      </c>
+      <c r="E7">
+        <v>7381</v>
+      </c>
+      <c r="F7">
+        <v>10008</v>
+      </c>
+      <c r="G7">
+        <v>9765</v>
+      </c>
+      <c r="H7">
+        <v>647</v>
+      </c>
+      <c r="I7">
+        <v>464</v>
+      </c>
+      <c r="J7">
+        <v>4511</v>
+      </c>
+      <c r="K7">
+        <v>978</v>
+      </c>
+      <c r="L7">
+        <v>10006</v>
+      </c>
+      <c r="M7">
+        <v>597</v>
+      </c>
+      <c r="N7">
+        <v>648</v>
+      </c>
+      <c r="O7">
+        <v>1375</v>
+      </c>
+      <c r="P7">
+        <v>714</v>
+      </c>
+      <c r="Q7">
+        <v>1044</v>
+      </c>
+      <c r="R7">
+        <v>564</v>
+      </c>
+      <c r="S7">
+        <v>582</v>
+      </c>
+      <c r="T7">
+        <v>630</v>
+      </c>
+      <c r="U7">
+        <v>465</v>
+      </c>
+      <c r="V7">
+        <v>1409</v>
+      </c>
+      <c r="W7">
+        <v>630</v>
+      </c>
+      <c r="X7">
+        <v>978</v>
+      </c>
+      <c r="Y7">
+        <v>10011</v>
+      </c>
+      <c r="Z7">
+        <v>1773</v>
+      </c>
+      <c r="AA7">
+        <v>6348</v>
+      </c>
+      <c r="AB7">
+        <v>8897</v>
+      </c>
+      <c r="AC7">
+        <v>8930</v>
+      </c>
+      <c r="AD7">
+        <v>10009</v>
+      </c>
+      <c r="AE7">
+        <v>7217</v>
+      </c>
+      <c r="AF7">
+        <v>10011</v>
+      </c>
+      <c r="AG7">
+        <v>681</v>
+      </c>
+      <c r="AH7">
+        <v>847</v>
+      </c>
+      <c r="AI7">
+        <v>7058</v>
+      </c>
+      <c r="AJ7">
+        <v>1458</v>
+      </c>
+      <c r="AK7">
+        <v>10015</v>
+      </c>
+      <c r="AL7">
+        <v>596</v>
+      </c>
+      <c r="AM7">
+        <v>680</v>
+      </c>
+      <c r="AN7">
+        <v>1131</v>
+      </c>
+      <c r="AO7">
+        <v>746</v>
+      </c>
+      <c r="AP7">
+        <v>713</v>
+      </c>
+      <c r="AQ7">
+        <v>637</v>
+      </c>
+      <c r="AR7">
+        <v>762</v>
+      </c>
+      <c r="AS7">
+        <v>683</v>
+      </c>
+      <c r="AT7">
+        <v>580</v>
+      </c>
+      <c r="AU7">
+        <v>762</v>
+      </c>
+      <c r="AV7">
+        <v>679</v>
+      </c>
+      <c r="AW7">
+        <v>3716</v>
+      </c>
+      <c r="AX7">
+        <v>3313</v>
+      </c>
+      <c r="AY7">
+        <v>746</v>
+      </c>
+      <c r="AZ7">
+        <v>7010</v>
       </c>
     </row>
   </sheetData>
@@ -4158,16 +4596,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:AZ3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AZ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52">
       <c r="C1" t="str">
         <f>time!C1</f>
         <v>Repetition 0</v>
@@ -4369,7 +4813,7 @@
         <v>Repetition 1</v>
       </c>
     </row>
-    <row r="2" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52">
       <c r="C2" t="str">
         <f>time!C2</f>
         <v>Amplitude 0</v>
@@ -4571,7 +5015,7 @@
         <v>Amplitude 6</v>
       </c>
     </row>
-    <row r="3" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52">
       <c r="C3" t="str">
         <f>time!C3</f>
         <v>WL 100</v>
@@ -4771,9 +5215,5842 @@
       <c r="AZ3" t="str">
         <f>time!AZ3</f>
         <v>WL 800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
+      <c r="A4">
+        <f>time!A5</f>
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <f>IF(target!C5&gt;0,time!C5,"")</f>
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(target!D5&gt;0,time!D5,"")</f>
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(target!E5&gt;0,time!E5,"")</f>
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(target!F5&gt;0,time!F5,"")</f>
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(target!G5&gt;0,time!G5,"")</f>
+        <v/>
+      </c>
+      <c r="H4">
+        <f>IF(target!H5&gt;0,time!H5,"")</f>
+        <v>911</v>
+      </c>
+      <c r="I4">
+        <f>IF(target!I5&gt;0,time!I5,"")</f>
+        <v>663</v>
+      </c>
+      <c r="J4">
+        <f>IF(target!J5&gt;0,time!J5,"")</f>
+        <v>2850</v>
+      </c>
+      <c r="K4">
+        <f>IF(target!K5&gt;0,time!K5,"")</f>
+        <v>746</v>
+      </c>
+      <c r="L4" t="str">
+        <f>IF(target!L5&gt;0,time!L5,"")</f>
+        <v/>
+      </c>
+      <c r="M4">
+        <f>IF(target!M5&gt;0,time!M5,"")</f>
+        <v>580</v>
+      </c>
+      <c r="N4">
+        <f>IF(target!N5&gt;0,time!N5,"")</f>
+        <v>454</v>
+      </c>
+      <c r="O4">
+        <f>IF(target!O5&gt;0,time!O5,"")</f>
+        <v>928</v>
+      </c>
+      <c r="P4">
+        <f>IF(target!P5&gt;0,time!P5,"")</f>
+        <v>796</v>
+      </c>
+      <c r="Q4">
+        <f>IF(target!Q5&gt;0,time!Q5,"")</f>
+        <v>1148</v>
+      </c>
+      <c r="R4">
+        <f>IF(target!R5&gt;0,time!R5,"")</f>
+        <v>961</v>
+      </c>
+      <c r="S4">
+        <f>IF(target!S5&gt;0,time!S5,"")</f>
+        <v>735</v>
+      </c>
+      <c r="T4">
+        <f>IF(target!T5&gt;0,time!T5,"")</f>
+        <v>613</v>
+      </c>
+      <c r="U4">
+        <f>IF(target!U5&gt;0,time!U5,"")</f>
+        <v>5384</v>
+      </c>
+      <c r="V4">
+        <f>IF(target!V5&gt;0,time!V5,"")</f>
+        <v>613</v>
+      </c>
+      <c r="W4">
+        <f>IF(target!W5&gt;0,time!W5,"")</f>
+        <v>1149</v>
+      </c>
+      <c r="X4">
+        <f>IF(target!X5&gt;0,time!X5,"")</f>
+        <v>845</v>
+      </c>
+      <c r="Y4">
+        <f>IF(target!Y5&gt;0,time!Y5,"")</f>
+        <v>2813</v>
+      </c>
+      <c r="Z4">
+        <f>IF(target!Z5&gt;0,time!Z5,"")</f>
+        <v>862</v>
+      </c>
+      <c r="AA4">
+        <f>IF(target!AA5&gt;0,time!AA5,"")</f>
+        <v>2159</v>
+      </c>
+      <c r="AB4" t="str">
+        <f>IF(target!AB5&gt;0,time!AB5,"")</f>
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <f>IF(target!AC5&gt;0,time!AC5,"")</f>
+        <v/>
+      </c>
+      <c r="AD4" t="str">
+        <f>IF(target!AD5&gt;0,time!AD5,"")</f>
+        <v/>
+      </c>
+      <c r="AE4" t="str">
+        <f>IF(target!AE5&gt;0,time!AE5,"")</f>
+        <v/>
+      </c>
+      <c r="AF4" t="str">
+        <f>IF(target!AF5&gt;0,time!AF5,"")</f>
+        <v/>
+      </c>
+      <c r="AG4">
+        <f>IF(target!AG5&gt;0,time!AG5,"")</f>
+        <v>862</v>
+      </c>
+      <c r="AH4">
+        <f>IF(target!AH5&gt;0,time!AH5,"")</f>
+        <v>1110</v>
+      </c>
+      <c r="AI4">
+        <f>IF(target!AI5&gt;0,time!AI5,"")</f>
+        <v>1757</v>
+      </c>
+      <c r="AJ4">
+        <f>IF(target!AJ5&gt;0,time!AJ5,"")</f>
+        <v>619</v>
+      </c>
+      <c r="AK4">
+        <f>IF(target!AK5&gt;0,time!AK5,"")</f>
+        <v>2319</v>
+      </c>
+      <c r="AL4">
+        <f>IF(target!AL5&gt;0,time!AL5,"")</f>
+        <v>779</v>
+      </c>
+      <c r="AM4">
+        <f>IF(target!AM5&gt;0,time!AM5,"")</f>
+        <v>514</v>
+      </c>
+      <c r="AN4">
+        <f>IF(target!AN5&gt;0,time!AN5,"")</f>
+        <v>415</v>
+      </c>
+      <c r="AO4">
+        <f>IF(target!AO5&gt;0,time!AO5,"")</f>
+        <v>928</v>
+      </c>
+      <c r="AP4">
+        <f>IF(target!AP5&gt;0,time!AP5,"")</f>
+        <v>928</v>
+      </c>
+      <c r="AQ4">
+        <f>IF(target!AQ5&gt;0,time!AQ5,"")</f>
+        <v>829</v>
+      </c>
+      <c r="AR4">
+        <f>IF(target!AR5&gt;0,time!AR5,"")</f>
+        <v>464</v>
+      </c>
+      <c r="AS4">
+        <f>IF(target!AS5&gt;0,time!AS5,"")</f>
+        <v>746</v>
+      </c>
+      <c r="AT4">
+        <f>IF(target!AT5&gt;0,time!AT5,"")</f>
+        <v>1640</v>
+      </c>
+      <c r="AU4">
+        <f>IF(target!AU5&gt;0,time!AU5,"")</f>
+        <v>1094</v>
+      </c>
+      <c r="AV4">
+        <f>IF(target!AV5&gt;0,time!AV5,"")</f>
+        <v>1707</v>
+      </c>
+      <c r="AW4">
+        <f>IF(target!AW5&gt;0,time!AW5,"")</f>
+        <v>911</v>
+      </c>
+      <c r="AX4" t="str">
+        <f>IF(target!AX5&gt;0,time!AX5,"")</f>
+        <v/>
+      </c>
+      <c r="AY4">
+        <f>IF(target!AY5&gt;0,time!AY5,"")</f>
+        <v>2585</v>
+      </c>
+      <c r="AZ4" t="str">
+        <f>IF(target!AZ5&gt;0,time!AZ5,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="A5">
+        <f>time!A6</f>
+        <v>2</v>
+      </c>
+      <c r="C5" t="str">
+        <f>IF(target!C6&gt;0,time!C6,"")</f>
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(target!D6&gt;0,time!D6,"")</f>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(target!E6&gt;0,time!E6,"")</f>
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(target!F6&gt;0,time!F6,"")</f>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(target!G6&gt;0,time!G6,"")</f>
+        <v/>
+      </c>
+      <c r="H5">
+        <f>IF(target!H6&gt;0,time!H6,"")</f>
+        <v>1047</v>
+      </c>
+      <c r="I5">
+        <f>IF(target!I6&gt;0,time!I6,"")</f>
+        <v>2170</v>
+      </c>
+      <c r="J5">
+        <f>IF(target!J6&gt;0,time!J6,"")</f>
+        <v>5972</v>
+      </c>
+      <c r="K5">
+        <f>IF(target!K6&gt;0,time!K6,"")</f>
+        <v>1044</v>
+      </c>
+      <c r="L5">
+        <f>IF(target!L6&gt;0,time!L6,"")</f>
+        <v>8498</v>
+      </c>
+      <c r="M5">
+        <f>IF(target!M6&gt;0,time!M6,"")</f>
+        <v>1213</v>
+      </c>
+      <c r="N5">
+        <f>IF(target!N6&gt;0,time!N6,"")</f>
+        <v>1127</v>
+      </c>
+      <c r="O5">
+        <f>IF(target!O6&gt;0,time!O6,"")</f>
+        <v>911</v>
+      </c>
+      <c r="P5">
+        <f>IF(target!P6&gt;0,time!P6,"")</f>
+        <v>1359</v>
+      </c>
+      <c r="Q5">
+        <f>IF(target!Q6&gt;0,time!Q6,"")</f>
+        <v>1524</v>
+      </c>
+      <c r="R5">
+        <f>IF(target!R6&gt;0,time!R6,"")</f>
+        <v>1955</v>
+      </c>
+      <c r="S5">
+        <f>IF(target!S6&gt;0,time!S6,"")</f>
+        <v>796</v>
+      </c>
+      <c r="T5">
+        <f>IF(target!T6&gt;0,time!T6,"")</f>
+        <v>1061</v>
+      </c>
+      <c r="U5">
+        <f>IF(target!U6&gt;0,time!U6,"")</f>
+        <v>837</v>
+      </c>
+      <c r="V5">
+        <f>IF(target!V6&gt;0,time!V6,"")</f>
+        <v>10454</v>
+      </c>
+      <c r="W5">
+        <f>IF(target!W6&gt;0,time!W6,"")</f>
+        <v>2374</v>
+      </c>
+      <c r="X5" t="str">
+        <f>IF(target!X6&gt;0,time!X6,"")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>IF(target!Y6&gt;0,time!Y6,"")</f>
+        <v>15666</v>
+      </c>
+      <c r="Z5">
+        <f>IF(target!Z6&gt;0,time!Z6,"")</f>
+        <v>796</v>
+      </c>
+      <c r="AA5" t="str">
+        <f>IF(target!AA6&gt;0,time!AA6,"")</f>
+        <v/>
+      </c>
+      <c r="AB5" t="str">
+        <f>IF(target!AB6&gt;0,time!AB6,"")</f>
+        <v/>
+      </c>
+      <c r="AC5" t="str">
+        <f>IF(target!AC6&gt;0,time!AC6,"")</f>
+        <v/>
+      </c>
+      <c r="AD5" t="str">
+        <f>IF(target!AD6&gt;0,time!AD6,"")</f>
+        <v/>
+      </c>
+      <c r="AE5" t="str">
+        <f>IF(target!AE6&gt;0,time!AE6,"")</f>
+        <v/>
+      </c>
+      <c r="AF5" t="str">
+        <f>IF(target!AF6&gt;0,time!AF6,"")</f>
+        <v/>
+      </c>
+      <c r="AG5">
+        <f>IF(target!AG6&gt;0,time!AG6,"")</f>
+        <v>531</v>
+      </c>
+      <c r="AH5">
+        <f>IF(target!AH6&gt;0,time!AH6,"")</f>
+        <v>2060</v>
+      </c>
+      <c r="AI5">
+        <f>IF(target!AI6&gt;0,time!AI6,"")</f>
+        <v>3280</v>
+      </c>
+      <c r="AJ5">
+        <f>IF(target!AJ6&gt;0,time!AJ6,"")</f>
+        <v>1176</v>
+      </c>
+      <c r="AK5" t="str">
+        <f>IF(target!AK6&gt;0,time!AK6,"")</f>
+        <v/>
+      </c>
+      <c r="AL5">
+        <f>IF(target!AL6&gt;0,time!AL6,"")</f>
+        <v>2021</v>
+      </c>
+      <c r="AM5">
+        <f>IF(target!AM6&gt;0,time!AM6,"")</f>
+        <v>1458</v>
+      </c>
+      <c r="AN5">
+        <f>IF(target!AN6&gt;0,time!AN6,"")</f>
+        <v>646</v>
+      </c>
+      <c r="AO5">
+        <f>IF(target!AO6&gt;0,time!AO6,"")</f>
+        <v>1127</v>
+      </c>
+      <c r="AP5">
+        <f>IF(target!AP6&gt;0,time!AP6,"")</f>
+        <v>1541</v>
+      </c>
+      <c r="AQ5">
+        <f>IF(target!AQ6&gt;0,time!AQ6,"")</f>
+        <v>950</v>
+      </c>
+      <c r="AR5">
+        <f>IF(target!AR6&gt;0,time!AR6,"")</f>
+        <v>784</v>
+      </c>
+      <c r="AS5">
+        <f>IF(target!AS6&gt;0,time!AS6,"")</f>
+        <v>564</v>
+      </c>
+      <c r="AT5">
+        <f>IF(target!AT6&gt;0,time!AT6,"")</f>
+        <v>4275</v>
+      </c>
+      <c r="AU5">
+        <f>IF(target!AU6&gt;0,time!AU6,"")</f>
+        <v>1806</v>
+      </c>
+      <c r="AV5">
+        <f>IF(target!AV6&gt;0,time!AV6,"")</f>
+        <v>713</v>
+      </c>
+      <c r="AW5">
+        <f>IF(target!AW6&gt;0,time!AW6,"")</f>
+        <v>1956</v>
+      </c>
+      <c r="AX5">
+        <f>IF(target!AX6&gt;0,time!AX6,"")</f>
+        <v>4841</v>
+      </c>
+      <c r="AY5">
+        <f>IF(target!AY6&gt;0,time!AY6,"")</f>
+        <v>1332</v>
+      </c>
+      <c r="AZ5" t="str">
+        <f>IF(target!AZ6&gt;0,time!AZ6,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6">
+        <f>time!A7</f>
+        <v>3</v>
+      </c>
+      <c r="C6" t="str">
+        <f>IF(target!C7&gt;0,time!C7,"")</f>
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(target!D7&gt;0,time!D7,"")</f>
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(target!E7&gt;0,time!E7,"")</f>
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(target!F7&gt;0,time!F7,"")</f>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(target!G7&gt;0,time!G7,"")</f>
+        <v/>
+      </c>
+      <c r="H6">
+        <f>IF(target!H7&gt;0,time!H7,"")</f>
+        <v>647</v>
+      </c>
+      <c r="I6">
+        <f>IF(target!I7&gt;0,time!I7,"")</f>
+        <v>464</v>
+      </c>
+      <c r="J6">
+        <f>IF(target!J7&gt;0,time!J7,"")</f>
+        <v>4511</v>
+      </c>
+      <c r="K6">
+        <f>IF(target!K7&gt;0,time!K7,"")</f>
+        <v>978</v>
+      </c>
+      <c r="L6" t="str">
+        <f>IF(target!L7&gt;0,time!L7,"")</f>
+        <v/>
+      </c>
+      <c r="M6">
+        <f>IF(target!M7&gt;0,time!M7,"")</f>
+        <v>597</v>
+      </c>
+      <c r="N6">
+        <f>IF(target!N7&gt;0,time!N7,"")</f>
+        <v>648</v>
+      </c>
+      <c r="O6">
+        <f>IF(target!O7&gt;0,time!O7,"")</f>
+        <v>1375</v>
+      </c>
+      <c r="P6">
+        <f>IF(target!P7&gt;0,time!P7,"")</f>
+        <v>714</v>
+      </c>
+      <c r="Q6">
+        <f>IF(target!Q7&gt;0,time!Q7,"")</f>
+        <v>1044</v>
+      </c>
+      <c r="R6">
+        <f>IF(target!R7&gt;0,time!R7,"")</f>
+        <v>564</v>
+      </c>
+      <c r="S6">
+        <f>IF(target!S7&gt;0,time!S7,"")</f>
+        <v>582</v>
+      </c>
+      <c r="T6">
+        <f>IF(target!T7&gt;0,time!T7,"")</f>
+        <v>630</v>
+      </c>
+      <c r="U6">
+        <f>IF(target!U7&gt;0,time!U7,"")</f>
+        <v>465</v>
+      </c>
+      <c r="V6">
+        <f>IF(target!V7&gt;0,time!V7,"")</f>
+        <v>1409</v>
+      </c>
+      <c r="W6">
+        <f>IF(target!W7&gt;0,time!W7,"")</f>
+        <v>630</v>
+      </c>
+      <c r="X6">
+        <f>IF(target!X7&gt;0,time!X7,"")</f>
+        <v>978</v>
+      </c>
+      <c r="Y6" t="str">
+        <f>IF(target!Y7&gt;0,time!Y7,"")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>IF(target!Z7&gt;0,time!Z7,"")</f>
+        <v>1773</v>
+      </c>
+      <c r="AA6" t="str">
+        <f>IF(target!AA7&gt;0,time!AA7,"")</f>
+        <v/>
+      </c>
+      <c r="AB6" t="str">
+        <f>IF(target!AB7&gt;0,time!AB7,"")</f>
+        <v/>
+      </c>
+      <c r="AC6" t="str">
+        <f>IF(target!AC7&gt;0,time!AC7,"")</f>
+        <v/>
+      </c>
+      <c r="AD6" t="str">
+        <f>IF(target!AD7&gt;0,time!AD7,"")</f>
+        <v/>
+      </c>
+      <c r="AE6" t="str">
+        <f>IF(target!AE7&gt;0,time!AE7,"")</f>
+        <v/>
+      </c>
+      <c r="AF6" t="str">
+        <f>IF(target!AF7&gt;0,time!AF7,"")</f>
+        <v/>
+      </c>
+      <c r="AG6">
+        <f>IF(target!AG7&gt;0,time!AG7,"")</f>
+        <v>681</v>
+      </c>
+      <c r="AH6">
+        <f>IF(target!AH7&gt;0,time!AH7,"")</f>
+        <v>847</v>
+      </c>
+      <c r="AI6">
+        <f>IF(target!AI7&gt;0,time!AI7,"")</f>
+        <v>7058</v>
+      </c>
+      <c r="AJ6">
+        <f>IF(target!AJ7&gt;0,time!AJ7,"")</f>
+        <v>1458</v>
+      </c>
+      <c r="AK6">
+        <f>IF(target!AK7&gt;0,time!AK7,"")</f>
+        <v>10015</v>
+      </c>
+      <c r="AL6">
+        <f>IF(target!AL7&gt;0,time!AL7,"")</f>
+        <v>596</v>
+      </c>
+      <c r="AM6">
+        <f>IF(target!AM7&gt;0,time!AM7,"")</f>
+        <v>680</v>
+      </c>
+      <c r="AN6">
+        <f>IF(target!AN7&gt;0,time!AN7,"")</f>
+        <v>1131</v>
+      </c>
+      <c r="AO6">
+        <f>IF(target!AO7&gt;0,time!AO7,"")</f>
+        <v>746</v>
+      </c>
+      <c r="AP6">
+        <f>IF(target!AP7&gt;0,time!AP7,"")</f>
+        <v>713</v>
+      </c>
+      <c r="AQ6">
+        <f>IF(target!AQ7&gt;0,time!AQ7,"")</f>
+        <v>637</v>
+      </c>
+      <c r="AR6">
+        <f>IF(target!AR7&gt;0,time!AR7,"")</f>
+        <v>762</v>
+      </c>
+      <c r="AS6">
+        <f>IF(target!AS7&gt;0,time!AS7,"")</f>
+        <v>683</v>
+      </c>
+      <c r="AT6">
+        <f>IF(target!AT7&gt;0,time!AT7,"")</f>
+        <v>580</v>
+      </c>
+      <c r="AU6">
+        <f>IF(target!AU7&gt;0,time!AU7,"")</f>
+        <v>762</v>
+      </c>
+      <c r="AV6">
+        <f>IF(target!AV7&gt;0,time!AV7,"")</f>
+        <v>679</v>
+      </c>
+      <c r="AW6">
+        <f>IF(target!AW7&gt;0,time!AW7,"")</f>
+        <v>3716</v>
+      </c>
+      <c r="AX6">
+        <f>IF(target!AX7&gt;0,time!AX7,"")</f>
+        <v>3313</v>
+      </c>
+      <c r="AY6">
+        <f>IF(target!AY7&gt;0,time!AY7,"")</f>
+        <v>746</v>
+      </c>
+      <c r="AZ6">
+        <f>IF(target!AZ7&gt;0,time!AZ7,"")</f>
+        <v>7010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="A7">
+        <f>time!A8</f>
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <f>IF(target!C8&gt;0,time!C8,"")</f>
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(target!D8&gt;0,time!D8,"")</f>
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <f>IF(target!E8&gt;0,time!E8,"")</f>
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(target!F8&gt;0,time!F8,"")</f>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(target!G8&gt;0,time!G8,"")</f>
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <f>IF(target!H8&gt;0,time!H8,"")</f>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <f>IF(target!I8&gt;0,time!I8,"")</f>
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <f>IF(target!J8&gt;0,time!J8,"")</f>
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(target!K8&gt;0,time!K8,"")</f>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f>IF(target!L8&gt;0,time!L8,"")</f>
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <f>IF(target!M8&gt;0,time!M8,"")</f>
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <f>IF(target!N8&gt;0,time!N8,"")</f>
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <f>IF(target!O8&gt;0,time!O8,"")</f>
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <f>IF(target!P8&gt;0,time!P8,"")</f>
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <f>IF(target!Q8&gt;0,time!Q8,"")</f>
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <f>IF(target!R8&gt;0,time!R8,"")</f>
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <f>IF(target!S8&gt;0,time!S8,"")</f>
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <f>IF(target!T8&gt;0,time!T8,"")</f>
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <f>IF(target!U8&gt;0,time!U8,"")</f>
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <f>IF(target!V8&gt;0,time!V8,"")</f>
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <f>IF(target!W8&gt;0,time!W8,"")</f>
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <f>IF(target!X8&gt;0,time!X8,"")</f>
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <f>IF(target!Y8&gt;0,time!Y8,"")</f>
+        <v/>
+      </c>
+      <c r="Z7" t="str">
+        <f>IF(target!Z8&gt;0,time!Z8,"")</f>
+        <v/>
+      </c>
+      <c r="AA7" t="str">
+        <f>IF(target!AA8&gt;0,time!AA8,"")</f>
+        <v/>
+      </c>
+      <c r="AB7" t="str">
+        <f>IF(target!AB8&gt;0,time!AB8,"")</f>
+        <v/>
+      </c>
+      <c r="AC7" t="str">
+        <f>IF(target!AC8&gt;0,time!AC8,"")</f>
+        <v/>
+      </c>
+      <c r="AD7" t="str">
+        <f>IF(target!AD8&gt;0,time!AD8,"")</f>
+        <v/>
+      </c>
+      <c r="AE7" t="str">
+        <f>IF(target!AE8&gt;0,time!AE8,"")</f>
+        <v/>
+      </c>
+      <c r="AF7" t="str">
+        <f>IF(target!AF8&gt;0,time!AF8,"")</f>
+        <v/>
+      </c>
+      <c r="AG7" t="str">
+        <f>IF(target!AG8&gt;0,time!AG8,"")</f>
+        <v/>
+      </c>
+      <c r="AH7" t="str">
+        <f>IF(target!AH8&gt;0,time!AH8,"")</f>
+        <v/>
+      </c>
+      <c r="AI7" t="str">
+        <f>IF(target!AI8&gt;0,time!AI8,"")</f>
+        <v/>
+      </c>
+      <c r="AJ7" t="str">
+        <f>IF(target!AJ8&gt;0,time!AJ8,"")</f>
+        <v/>
+      </c>
+      <c r="AK7" t="str">
+        <f>IF(target!AK8&gt;0,time!AK8,"")</f>
+        <v/>
+      </c>
+      <c r="AL7" t="str">
+        <f>IF(target!AL8&gt;0,time!AL8,"")</f>
+        <v/>
+      </c>
+      <c r="AM7" t="str">
+        <f>IF(target!AM8&gt;0,time!AM8,"")</f>
+        <v/>
+      </c>
+      <c r="AN7" t="str">
+        <f>IF(target!AN8&gt;0,time!AN8,"")</f>
+        <v/>
+      </c>
+      <c r="AO7" t="str">
+        <f>IF(target!AO8&gt;0,time!AO8,"")</f>
+        <v/>
+      </c>
+      <c r="AP7" t="str">
+        <f>IF(target!AP8&gt;0,time!AP8,"")</f>
+        <v/>
+      </c>
+      <c r="AQ7" t="str">
+        <f>IF(target!AQ8&gt;0,time!AQ8,"")</f>
+        <v/>
+      </c>
+      <c r="AR7" t="str">
+        <f>IF(target!AR8&gt;0,time!AR8,"")</f>
+        <v/>
+      </c>
+      <c r="AS7" t="str">
+        <f>IF(target!AS8&gt;0,time!AS8,"")</f>
+        <v/>
+      </c>
+      <c r="AT7" t="str">
+        <f>IF(target!AT8&gt;0,time!AT8,"")</f>
+        <v/>
+      </c>
+      <c r="AU7" t="str">
+        <f>IF(target!AU8&gt;0,time!AU8,"")</f>
+        <v/>
+      </c>
+      <c r="AV7" t="str">
+        <f>IF(target!AV8&gt;0,time!AV8,"")</f>
+        <v/>
+      </c>
+      <c r="AW7" t="str">
+        <f>IF(target!AW8&gt;0,time!AW8,"")</f>
+        <v/>
+      </c>
+      <c r="AX7" t="str">
+        <f>IF(target!AX8&gt;0,time!AX8,"")</f>
+        <v/>
+      </c>
+      <c r="AY7" t="str">
+        <f>IF(target!AY8&gt;0,time!AY8,"")</f>
+        <v/>
+      </c>
+      <c r="AZ7" t="str">
+        <f>IF(target!AZ8&gt;0,time!AZ8,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="A8">
+        <f>time!A9</f>
+        <v>0</v>
+      </c>
+      <c r="C8" t="str">
+        <f>IF(target!C9&gt;0,time!C9,"")</f>
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(target!D9&gt;0,time!D9,"")</f>
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <f>IF(target!E9&gt;0,time!E9,"")</f>
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(target!F9&gt;0,time!F9,"")</f>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(target!G9&gt;0,time!G9,"")</f>
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <f>IF(target!H9&gt;0,time!H9,"")</f>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f>IF(target!I9&gt;0,time!I9,"")</f>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f>IF(target!J9&gt;0,time!J9,"")</f>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f>IF(target!K9&gt;0,time!K9,"")</f>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f>IF(target!L9&gt;0,time!L9,"")</f>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f>IF(target!M9&gt;0,time!M9,"")</f>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f>IF(target!N9&gt;0,time!N9,"")</f>
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <f>IF(target!O9&gt;0,time!O9,"")</f>
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <f>IF(target!P9&gt;0,time!P9,"")</f>
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <f>IF(target!Q9&gt;0,time!Q9,"")</f>
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <f>IF(target!R9&gt;0,time!R9,"")</f>
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <f>IF(target!S9&gt;0,time!S9,"")</f>
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <f>IF(target!T9&gt;0,time!T9,"")</f>
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <f>IF(target!U9&gt;0,time!U9,"")</f>
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <f>IF(target!V9&gt;0,time!V9,"")</f>
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <f>IF(target!W9&gt;0,time!W9,"")</f>
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <f>IF(target!X9&gt;0,time!X9,"")</f>
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <f>IF(target!Y9&gt;0,time!Y9,"")</f>
+        <v/>
+      </c>
+      <c r="Z8" t="str">
+        <f>IF(target!Z9&gt;0,time!Z9,"")</f>
+        <v/>
+      </c>
+      <c r="AA8" t="str">
+        <f>IF(target!AA9&gt;0,time!AA9,"")</f>
+        <v/>
+      </c>
+      <c r="AB8" t="str">
+        <f>IF(target!AB9&gt;0,time!AB9,"")</f>
+        <v/>
+      </c>
+      <c r="AC8" t="str">
+        <f>IF(target!AC9&gt;0,time!AC9,"")</f>
+        <v/>
+      </c>
+      <c r="AD8" t="str">
+        <f>IF(target!AD9&gt;0,time!AD9,"")</f>
+        <v/>
+      </c>
+      <c r="AE8" t="str">
+        <f>IF(target!AE9&gt;0,time!AE9,"")</f>
+        <v/>
+      </c>
+      <c r="AF8" t="str">
+        <f>IF(target!AF9&gt;0,time!AF9,"")</f>
+        <v/>
+      </c>
+      <c r="AG8" t="str">
+        <f>IF(target!AG9&gt;0,time!AG9,"")</f>
+        <v/>
+      </c>
+      <c r="AH8" t="str">
+        <f>IF(target!AH9&gt;0,time!AH9,"")</f>
+        <v/>
+      </c>
+      <c r="AI8" t="str">
+        <f>IF(target!AI9&gt;0,time!AI9,"")</f>
+        <v/>
+      </c>
+      <c r="AJ8" t="str">
+        <f>IF(target!AJ9&gt;0,time!AJ9,"")</f>
+        <v/>
+      </c>
+      <c r="AK8" t="str">
+        <f>IF(target!AK9&gt;0,time!AK9,"")</f>
+        <v/>
+      </c>
+      <c r="AL8" t="str">
+        <f>IF(target!AL9&gt;0,time!AL9,"")</f>
+        <v/>
+      </c>
+      <c r="AM8" t="str">
+        <f>IF(target!AM9&gt;0,time!AM9,"")</f>
+        <v/>
+      </c>
+      <c r="AN8" t="str">
+        <f>IF(target!AN9&gt;0,time!AN9,"")</f>
+        <v/>
+      </c>
+      <c r="AO8" t="str">
+        <f>IF(target!AO9&gt;0,time!AO9,"")</f>
+        <v/>
+      </c>
+      <c r="AP8" t="str">
+        <f>IF(target!AP9&gt;0,time!AP9,"")</f>
+        <v/>
+      </c>
+      <c r="AQ8" t="str">
+        <f>IF(target!AQ9&gt;0,time!AQ9,"")</f>
+        <v/>
+      </c>
+      <c r="AR8" t="str">
+        <f>IF(target!AR9&gt;0,time!AR9,"")</f>
+        <v/>
+      </c>
+      <c r="AS8" t="str">
+        <f>IF(target!AS9&gt;0,time!AS9,"")</f>
+        <v/>
+      </c>
+      <c r="AT8" t="str">
+        <f>IF(target!AT9&gt;0,time!AT9,"")</f>
+        <v/>
+      </c>
+      <c r="AU8" t="str">
+        <f>IF(target!AU9&gt;0,time!AU9,"")</f>
+        <v/>
+      </c>
+      <c r="AV8" t="str">
+        <f>IF(target!AV9&gt;0,time!AV9,"")</f>
+        <v/>
+      </c>
+      <c r="AW8" t="str">
+        <f>IF(target!AW9&gt;0,time!AW9,"")</f>
+        <v/>
+      </c>
+      <c r="AX8" t="str">
+        <f>IF(target!AX9&gt;0,time!AX9,"")</f>
+        <v/>
+      </c>
+      <c r="AY8" t="str">
+        <f>IF(target!AY9&gt;0,time!AY9,"")</f>
+        <v/>
+      </c>
+      <c r="AZ8" t="str">
+        <f>IF(target!AZ9&gt;0,time!AZ9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="C9" t="str">
+        <f>IF(target!C10&gt;0,time!C10,"")</f>
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(target!D10&gt;0,time!D10,"")</f>
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <f>IF(target!E10&gt;0,time!E10,"")</f>
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <f>IF(target!F10&gt;0,time!F10,"")</f>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(target!G10&gt;0,time!G10,"")</f>
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <f>IF(target!H10&gt;0,time!H10,"")</f>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f>IF(target!I10&gt;0,time!I10,"")</f>
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <f>IF(target!J10&gt;0,time!J10,"")</f>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f>IF(target!K10&gt;0,time!K10,"")</f>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f>IF(target!L10&gt;0,time!L10,"")</f>
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <f>IF(target!M10&gt;0,time!M10,"")</f>
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <f>IF(target!N10&gt;0,time!N10,"")</f>
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <f>IF(target!O10&gt;0,time!O10,"")</f>
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <f>IF(target!P10&gt;0,time!P10,"")</f>
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <f>IF(target!Q10&gt;0,time!Q10,"")</f>
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <f>IF(target!R10&gt;0,time!R10,"")</f>
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <f>IF(target!S10&gt;0,time!S10,"")</f>
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <f>IF(target!T10&gt;0,time!T10,"")</f>
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <f>IF(target!U10&gt;0,time!U10,"")</f>
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <f>IF(target!V10&gt;0,time!V10,"")</f>
+        <v/>
+      </c>
+      <c r="W9" t="str">
+        <f>IF(target!W10&gt;0,time!W10,"")</f>
+        <v/>
+      </c>
+      <c r="X9" t="str">
+        <f>IF(target!X10&gt;0,time!X10,"")</f>
+        <v/>
+      </c>
+      <c r="Y9" t="str">
+        <f>IF(target!Y10&gt;0,time!Y10,"")</f>
+        <v/>
+      </c>
+      <c r="Z9" t="str">
+        <f>IF(target!Z10&gt;0,time!Z10,"")</f>
+        <v/>
+      </c>
+      <c r="AA9" t="str">
+        <f>IF(target!AA10&gt;0,time!AA10,"")</f>
+        <v/>
+      </c>
+      <c r="AB9" t="str">
+        <f>IF(target!AB10&gt;0,time!AB10,"")</f>
+        <v/>
+      </c>
+      <c r="AC9" t="str">
+        <f>IF(target!AC10&gt;0,time!AC10,"")</f>
+        <v/>
+      </c>
+      <c r="AD9" t="str">
+        <f>IF(target!AD10&gt;0,time!AD10,"")</f>
+        <v/>
+      </c>
+      <c r="AE9" t="str">
+        <f>IF(target!AE10&gt;0,time!AE10,"")</f>
+        <v/>
+      </c>
+      <c r="AF9" t="str">
+        <f>IF(target!AF10&gt;0,time!AF10,"")</f>
+        <v/>
+      </c>
+      <c r="AG9" t="str">
+        <f>IF(target!AG10&gt;0,time!AG10,"")</f>
+        <v/>
+      </c>
+      <c r="AH9" t="str">
+        <f>IF(target!AH10&gt;0,time!AH10,"")</f>
+        <v/>
+      </c>
+      <c r="AI9" t="str">
+        <f>IF(target!AI10&gt;0,time!AI10,"")</f>
+        <v/>
+      </c>
+      <c r="AJ9" t="str">
+        <f>IF(target!AJ10&gt;0,time!AJ10,"")</f>
+        <v/>
+      </c>
+      <c r="AK9" t="str">
+        <f>IF(target!AK10&gt;0,time!AK10,"")</f>
+        <v/>
+      </c>
+      <c r="AL9" t="str">
+        <f>IF(target!AL10&gt;0,time!AL10,"")</f>
+        <v/>
+      </c>
+      <c r="AM9" t="str">
+        <f>IF(target!AM10&gt;0,time!AM10,"")</f>
+        <v/>
+      </c>
+      <c r="AN9" t="str">
+        <f>IF(target!AN10&gt;0,time!AN10,"")</f>
+        <v/>
+      </c>
+      <c r="AO9" t="str">
+        <f>IF(target!AO10&gt;0,time!AO10,"")</f>
+        <v/>
+      </c>
+      <c r="AP9" t="str">
+        <f>IF(target!AP10&gt;0,time!AP10,"")</f>
+        <v/>
+      </c>
+      <c r="AQ9" t="str">
+        <f>IF(target!AQ10&gt;0,time!AQ10,"")</f>
+        <v/>
+      </c>
+      <c r="AR9" t="str">
+        <f>IF(target!AR10&gt;0,time!AR10,"")</f>
+        <v/>
+      </c>
+      <c r="AS9" t="str">
+        <f>IF(target!AS10&gt;0,time!AS10,"")</f>
+        <v/>
+      </c>
+      <c r="AT9" t="str">
+        <f>IF(target!AT10&gt;0,time!AT10,"")</f>
+        <v/>
+      </c>
+      <c r="AU9" t="str">
+        <f>IF(target!AU10&gt;0,time!AU10,"")</f>
+        <v/>
+      </c>
+      <c r="AV9" t="str">
+        <f>IF(target!AV10&gt;0,time!AV10,"")</f>
+        <v/>
+      </c>
+      <c r="AW9" t="str">
+        <f>IF(target!AW10&gt;0,time!AW10,"")</f>
+        <v/>
+      </c>
+      <c r="AX9" t="str">
+        <f>IF(target!AX10&gt;0,time!AX10,"")</f>
+        <v/>
+      </c>
+      <c r="AY9" t="str">
+        <f>IF(target!AY10&gt;0,time!AY10,"")</f>
+        <v/>
+      </c>
+      <c r="AZ9" t="str">
+        <f>IF(target!AZ10&gt;0,time!AZ10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="C10" t="str">
+        <f>IF(target!C11&gt;0,time!C11,"")</f>
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <f>IF(target!D11&gt;0,time!D11,"")</f>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f>IF(target!E11&gt;0,time!E11,"")</f>
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <f>IF(target!F11&gt;0,time!F11,"")</f>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(target!G11&gt;0,time!G11,"")</f>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f>IF(target!H11&gt;0,time!H11,"")</f>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f>IF(target!I11&gt;0,time!I11,"")</f>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f>IF(target!J11&gt;0,time!J11,"")</f>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f>IF(target!K11&gt;0,time!K11,"")</f>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f>IF(target!L11&gt;0,time!L11,"")</f>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f>IF(target!M11&gt;0,time!M11,"")</f>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f>IF(target!N11&gt;0,time!N11,"")</f>
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <f>IF(target!O11&gt;0,time!O11,"")</f>
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <f>IF(target!P11&gt;0,time!P11,"")</f>
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <f>IF(target!Q11&gt;0,time!Q11,"")</f>
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <f>IF(target!R11&gt;0,time!R11,"")</f>
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <f>IF(target!S11&gt;0,time!S11,"")</f>
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <f>IF(target!T11&gt;0,time!T11,"")</f>
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <f>IF(target!U11&gt;0,time!U11,"")</f>
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <f>IF(target!V11&gt;0,time!V11,"")</f>
+        <v/>
+      </c>
+      <c r="W10" t="str">
+        <f>IF(target!W11&gt;0,time!W11,"")</f>
+        <v/>
+      </c>
+      <c r="X10" t="str">
+        <f>IF(target!X11&gt;0,time!X11,"")</f>
+        <v/>
+      </c>
+      <c r="Y10" t="str">
+        <f>IF(target!Y11&gt;0,time!Y11,"")</f>
+        <v/>
+      </c>
+      <c r="Z10" t="str">
+        <f>IF(target!Z11&gt;0,time!Z11,"")</f>
+        <v/>
+      </c>
+      <c r="AA10" t="str">
+        <f>IF(target!AA11&gt;0,time!AA11,"")</f>
+        <v/>
+      </c>
+      <c r="AB10" t="str">
+        <f>IF(target!AB11&gt;0,time!AB11,"")</f>
+        <v/>
+      </c>
+      <c r="AC10" t="str">
+        <f>IF(target!AC11&gt;0,time!AC11,"")</f>
+        <v/>
+      </c>
+      <c r="AD10" t="str">
+        <f>IF(target!AD11&gt;0,time!AD11,"")</f>
+        <v/>
+      </c>
+      <c r="AE10" t="str">
+        <f>IF(target!AE11&gt;0,time!AE11,"")</f>
+        <v/>
+      </c>
+      <c r="AF10" t="str">
+        <f>IF(target!AF11&gt;0,time!AF11,"")</f>
+        <v/>
+      </c>
+      <c r="AG10" t="str">
+        <f>IF(target!AG11&gt;0,time!AG11,"")</f>
+        <v/>
+      </c>
+      <c r="AH10" t="str">
+        <f>IF(target!AH11&gt;0,time!AH11,"")</f>
+        <v/>
+      </c>
+      <c r="AI10" t="str">
+        <f>IF(target!AI11&gt;0,time!AI11,"")</f>
+        <v/>
+      </c>
+      <c r="AJ10" t="str">
+        <f>IF(target!AJ11&gt;0,time!AJ11,"")</f>
+        <v/>
+      </c>
+      <c r="AK10" t="str">
+        <f>IF(target!AK11&gt;0,time!AK11,"")</f>
+        <v/>
+      </c>
+      <c r="AL10" t="str">
+        <f>IF(target!AL11&gt;0,time!AL11,"")</f>
+        <v/>
+      </c>
+      <c r="AM10" t="str">
+        <f>IF(target!AM11&gt;0,time!AM11,"")</f>
+        <v/>
+      </c>
+      <c r="AN10" t="str">
+        <f>IF(target!AN11&gt;0,time!AN11,"")</f>
+        <v/>
+      </c>
+      <c r="AO10" t="str">
+        <f>IF(target!AO11&gt;0,time!AO11,"")</f>
+        <v/>
+      </c>
+      <c r="AP10" t="str">
+        <f>IF(target!AP11&gt;0,time!AP11,"")</f>
+        <v/>
+      </c>
+      <c r="AQ10" t="str">
+        <f>IF(target!AQ11&gt;0,time!AQ11,"")</f>
+        <v/>
+      </c>
+      <c r="AR10" t="str">
+        <f>IF(target!AR11&gt;0,time!AR11,"")</f>
+        <v/>
+      </c>
+      <c r="AS10" t="str">
+        <f>IF(target!AS11&gt;0,time!AS11,"")</f>
+        <v/>
+      </c>
+      <c r="AT10" t="str">
+        <f>IF(target!AT11&gt;0,time!AT11,"")</f>
+        <v/>
+      </c>
+      <c r="AU10" t="str">
+        <f>IF(target!AU11&gt;0,time!AU11,"")</f>
+        <v/>
+      </c>
+      <c r="AV10" t="str">
+        <f>IF(target!AV11&gt;0,time!AV11,"")</f>
+        <v/>
+      </c>
+      <c r="AW10" t="str">
+        <f>IF(target!AW11&gt;0,time!AW11,"")</f>
+        <v/>
+      </c>
+      <c r="AX10" t="str">
+        <f>IF(target!AX11&gt;0,time!AX11,"")</f>
+        <v/>
+      </c>
+      <c r="AY10" t="str">
+        <f>IF(target!AY11&gt;0,time!AY11,"")</f>
+        <v/>
+      </c>
+      <c r="AZ10" t="str">
+        <f>IF(target!AZ11&gt;0,time!AZ11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="C11" t="str">
+        <f>IF(target!C12&gt;0,time!C12,"")</f>
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <f>IF(target!D12&gt;0,time!D12,"")</f>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(target!E12&gt;0,time!E12,"")</f>
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <f>IF(target!F12&gt;0,time!F12,"")</f>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(target!G12&gt;0,time!G12,"")</f>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <f>IF(target!H12&gt;0,time!H12,"")</f>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f>IF(target!I12&gt;0,time!I12,"")</f>
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <f>IF(target!J12&gt;0,time!J12,"")</f>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f>IF(target!K12&gt;0,time!K12,"")</f>
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <f>IF(target!L12&gt;0,time!L12,"")</f>
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <f>IF(target!M12&gt;0,time!M12,"")</f>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f>IF(target!N12&gt;0,time!N12,"")</f>
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <f>IF(target!O12&gt;0,time!O12,"")</f>
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <f>IF(target!P12&gt;0,time!P12,"")</f>
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <f>IF(target!Q12&gt;0,time!Q12,"")</f>
+        <v/>
+      </c>
+      <c r="R11" t="str">
+        <f>IF(target!R12&gt;0,time!R12,"")</f>
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <f>IF(target!S12&gt;0,time!S12,"")</f>
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <f>IF(target!T12&gt;0,time!T12,"")</f>
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <f>IF(target!U12&gt;0,time!U12,"")</f>
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <f>IF(target!V12&gt;0,time!V12,"")</f>
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <f>IF(target!W12&gt;0,time!W12,"")</f>
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <f>IF(target!X12&gt;0,time!X12,"")</f>
+        <v/>
+      </c>
+      <c r="Y11" t="str">
+        <f>IF(target!Y12&gt;0,time!Y12,"")</f>
+        <v/>
+      </c>
+      <c r="Z11" t="str">
+        <f>IF(target!Z12&gt;0,time!Z12,"")</f>
+        <v/>
+      </c>
+      <c r="AA11" t="str">
+        <f>IF(target!AA12&gt;0,time!AA12,"")</f>
+        <v/>
+      </c>
+      <c r="AB11" t="str">
+        <f>IF(target!AB12&gt;0,time!AB12,"")</f>
+        <v/>
+      </c>
+      <c r="AC11" t="str">
+        <f>IF(target!AC12&gt;0,time!AC12,"")</f>
+        <v/>
+      </c>
+      <c r="AD11" t="str">
+        <f>IF(target!AD12&gt;0,time!AD12,"")</f>
+        <v/>
+      </c>
+      <c r="AE11" t="str">
+        <f>IF(target!AE12&gt;0,time!AE12,"")</f>
+        <v/>
+      </c>
+      <c r="AF11" t="str">
+        <f>IF(target!AF12&gt;0,time!AF12,"")</f>
+        <v/>
+      </c>
+      <c r="AG11" t="str">
+        <f>IF(target!AG12&gt;0,time!AG12,"")</f>
+        <v/>
+      </c>
+      <c r="AH11" t="str">
+        <f>IF(target!AH12&gt;0,time!AH12,"")</f>
+        <v/>
+      </c>
+      <c r="AI11" t="str">
+        <f>IF(target!AI12&gt;0,time!AI12,"")</f>
+        <v/>
+      </c>
+      <c r="AJ11" t="str">
+        <f>IF(target!AJ12&gt;0,time!AJ12,"")</f>
+        <v/>
+      </c>
+      <c r="AK11" t="str">
+        <f>IF(target!AK12&gt;0,time!AK12,"")</f>
+        <v/>
+      </c>
+      <c r="AL11" t="str">
+        <f>IF(target!AL12&gt;0,time!AL12,"")</f>
+        <v/>
+      </c>
+      <c r="AM11" t="str">
+        <f>IF(target!AM12&gt;0,time!AM12,"")</f>
+        <v/>
+      </c>
+      <c r="AN11" t="str">
+        <f>IF(target!AN12&gt;0,time!AN12,"")</f>
+        <v/>
+      </c>
+      <c r="AO11" t="str">
+        <f>IF(target!AO12&gt;0,time!AO12,"")</f>
+        <v/>
+      </c>
+      <c r="AP11" t="str">
+        <f>IF(target!AP12&gt;0,time!AP12,"")</f>
+        <v/>
+      </c>
+      <c r="AQ11" t="str">
+        <f>IF(target!AQ12&gt;0,time!AQ12,"")</f>
+        <v/>
+      </c>
+      <c r="AR11" t="str">
+        <f>IF(target!AR12&gt;0,time!AR12,"")</f>
+        <v/>
+      </c>
+      <c r="AS11" t="str">
+        <f>IF(target!AS12&gt;0,time!AS12,"")</f>
+        <v/>
+      </c>
+      <c r="AT11" t="str">
+        <f>IF(target!AT12&gt;0,time!AT12,"")</f>
+        <v/>
+      </c>
+      <c r="AU11" t="str">
+        <f>IF(target!AU12&gt;0,time!AU12,"")</f>
+        <v/>
+      </c>
+      <c r="AV11" t="str">
+        <f>IF(target!AV12&gt;0,time!AV12,"")</f>
+        <v/>
+      </c>
+      <c r="AW11" t="str">
+        <f>IF(target!AW12&gt;0,time!AW12,"")</f>
+        <v/>
+      </c>
+      <c r="AX11" t="str">
+        <f>IF(target!AX12&gt;0,time!AX12,"")</f>
+        <v/>
+      </c>
+      <c r="AY11" t="str">
+        <f>IF(target!AY12&gt;0,time!AY12,"")</f>
+        <v/>
+      </c>
+      <c r="AZ11" t="str">
+        <f>IF(target!AZ12&gt;0,time!AZ12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="C16" t="str">
+        <f>target!C16</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="D16" t="str">
+        <f>target!D16</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="E16" t="str">
+        <f>target!E16</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="F16" t="str">
+        <f>target!F16</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="G16" t="str">
+        <f>target!G16</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="H16" t="str">
+        <f>target!H16</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="I16" t="str">
+        <f>target!I16</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="J16" t="str">
+        <f>target!J16</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="K16" t="str">
+        <f>target!K16</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="L16" t="str">
+        <f>target!L16</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="M16" t="str">
+        <f>target!M16</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="N16" t="str">
+        <f>target!N16</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="O16" t="str">
+        <f>target!O16</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="P16" t="str">
+        <f>target!P16</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>target!Q16</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="R16" t="str">
+        <f>target!R16</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="S16" t="str">
+        <f>target!S16</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="T16" t="str">
+        <f>target!T16</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="U16" t="str">
+        <f>target!U16</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="V16" t="str">
+        <f>target!V16</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="W16" t="str">
+        <f>target!W16</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="X16" t="str">
+        <f>target!X16</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="Y16" t="str">
+        <f>target!Y16</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="Z16" t="str">
+        <f>target!Z16</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AA16" t="str">
+        <f>target!AA16</f>
+        <v>Amplitude 6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="C17" t="str">
+        <f>target!C17</f>
+        <v>WL 100</v>
+      </c>
+      <c r="D17" t="str">
+        <f>target!D17</f>
+        <v>WL 200</v>
+      </c>
+      <c r="E17" t="str">
+        <f>target!E17</f>
+        <v>WL 400</v>
+      </c>
+      <c r="F17" t="str">
+        <f>target!F17</f>
+        <v>WL 50</v>
+      </c>
+      <c r="G17" t="str">
+        <f>target!G17</f>
+        <v>WL 800</v>
+      </c>
+      <c r="H17" t="str">
+        <f>target!H17</f>
+        <v>WL 100</v>
+      </c>
+      <c r="I17" t="str">
+        <f>target!I17</f>
+        <v>WL 200</v>
+      </c>
+      <c r="J17" t="str">
+        <f>target!J17</f>
+        <v>WL 400</v>
+      </c>
+      <c r="K17" t="str">
+        <f>target!K17</f>
+        <v>WL 50</v>
+      </c>
+      <c r="L17" t="str">
+        <f>target!L17</f>
+        <v>WL 800</v>
+      </c>
+      <c r="M17" t="str">
+        <f>target!M17</f>
+        <v>WL 100</v>
+      </c>
+      <c r="N17" t="str">
+        <f>target!N17</f>
+        <v>WL 200</v>
+      </c>
+      <c r="O17" t="str">
+        <f>target!O17</f>
+        <v>WL 400</v>
+      </c>
+      <c r="P17" t="str">
+        <f>target!P17</f>
+        <v>WL 50</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>target!Q17</f>
+        <v>WL 800</v>
+      </c>
+      <c r="R17" t="str">
+        <f>target!R17</f>
+        <v>WL 100</v>
+      </c>
+      <c r="S17" t="str">
+        <f>target!S17</f>
+        <v>WL 200</v>
+      </c>
+      <c r="T17" t="str">
+        <f>target!T17</f>
+        <v>WL 400</v>
+      </c>
+      <c r="U17" t="str">
+        <f>target!U17</f>
+        <v>WL 50</v>
+      </c>
+      <c r="V17" t="str">
+        <f>target!V17</f>
+        <v>WL 800</v>
+      </c>
+      <c r="W17" t="str">
+        <f>target!W17</f>
+        <v>WL 100</v>
+      </c>
+      <c r="X17" t="str">
+        <f>target!X17</f>
+        <v>WL 200</v>
+      </c>
+      <c r="Y17" t="str">
+        <f>target!Y17</f>
+        <v>WL 400</v>
+      </c>
+      <c r="Z17" t="str">
+        <f>target!Z17</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AA17" t="str">
+        <f>target!AA17</f>
+        <v>WL 800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18">
+        <f>A4</f>
+        <v>1</v>
+      </c>
+      <c r="C18" t="str">
+        <f>IF(ISERROR(AVERAGE(C4,AB4)),"",AVERAGE(C4,AB4))</f>
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" ref="D18:AA18" si="0">IF(ISERROR(AVERAGE(D4,AC4)),"",AVERAGE(D4,AC4))</f>
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>886.5</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>886.5</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>2303.5</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>682.5</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>2319</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>679.5</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>484</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>671.5</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>862</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>1038</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>895</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>599.5</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>679.5</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>3512</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>853.5</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>1428</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="0"/>
+        <v>878</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="0"/>
+        <v>2813</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="0"/>
+        <v>1723.5</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="0"/>
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19">
+        <f t="shared" ref="A19:A20" si="1">A5</f>
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <f>IF(ISERROR(AVERAGE(C5,AB5)),"",AVERAGE(C5,AB5))</f>
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19:D20" si="2">IF(ISERROR(AVERAGE(D5,AC5)),"",AVERAGE(D5,AC5))</f>
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" ref="E19:E20" si="3">IF(ISERROR(AVERAGE(E5,AD5)),"",AVERAGE(E5,AD5))</f>
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" ref="F19:F20" si="4">IF(ISERROR(AVERAGE(F5,AE5)),"",AVERAGE(F5,AE5))</f>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" ref="G19:G20" si="5">IF(ISERROR(AVERAGE(G5,AF5)),"",AVERAGE(G5,AF5))</f>
+        <v/>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H20" si="6">IF(ISERROR(AVERAGE(H5,AG5)),"",AVERAGE(H5,AG5))</f>
+        <v>789</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I20" si="7">IF(ISERROR(AVERAGE(I5,AH5)),"",AVERAGE(I5,AH5))</f>
+        <v>2115</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J20" si="8">IF(ISERROR(AVERAGE(J5,AI5)),"",AVERAGE(J5,AI5))</f>
+        <v>4626</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K20" si="9">IF(ISERROR(AVERAGE(K5,AJ5)),"",AVERAGE(K5,AJ5))</f>
+        <v>1110</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L20" si="10">IF(ISERROR(AVERAGE(L5,AK5)),"",AVERAGE(L5,AK5))</f>
+        <v>8498</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M20" si="11">IF(ISERROR(AVERAGE(M5,AL5)),"",AVERAGE(M5,AL5))</f>
+        <v>1617</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N20" si="12">IF(ISERROR(AVERAGE(N5,AM5)),"",AVERAGE(N5,AM5))</f>
+        <v>1292.5</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O20" si="13">IF(ISERROR(AVERAGE(O5,AN5)),"",AVERAGE(O5,AN5))</f>
+        <v>778.5</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19:P20" si="14">IF(ISERROR(AVERAGE(P5,AO5)),"",AVERAGE(P5,AO5))</f>
+        <v>1243</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19:Q20" si="15">IF(ISERROR(AVERAGE(Q5,AP5)),"",AVERAGE(Q5,AP5))</f>
+        <v>1532.5</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19:R20" si="16">IF(ISERROR(AVERAGE(R5,AQ5)),"",AVERAGE(R5,AQ5))</f>
+        <v>1452.5</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ref="S19:S20" si="17">IF(ISERROR(AVERAGE(S5,AR5)),"",AVERAGE(S5,AR5))</f>
+        <v>790</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ref="T19:T20" si="18">IF(ISERROR(AVERAGE(T5,AS5)),"",AVERAGE(T5,AS5))</f>
+        <v>812.5</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ref="U19:U20" si="19">IF(ISERROR(AVERAGE(U5,AT5)),"",AVERAGE(U5,AT5))</f>
+        <v>2556</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ref="V19:V20" si="20">IF(ISERROR(AVERAGE(V5,AU5)),"",AVERAGE(V5,AU5))</f>
+        <v>6130</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ref="W19:W20" si="21">IF(ISERROR(AVERAGE(W5,AV5)),"",AVERAGE(W5,AV5))</f>
+        <v>1543.5</v>
+      </c>
+      <c r="X19">
+        <f t="shared" ref="X19:X20" si="22">IF(ISERROR(AVERAGE(X5,AW5)),"",AVERAGE(X5,AW5))</f>
+        <v>1956</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" ref="Y19:Y20" si="23">IF(ISERROR(AVERAGE(Y5,AX5)),"",AVERAGE(Y5,AX5))</f>
+        <v>10253.5</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" ref="Z19:Z20" si="24">IF(ISERROR(AVERAGE(Z5,AY5)),"",AVERAGE(Z5,AY5))</f>
+        <v>1064</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" ref="AA19:AA20" si="25">IF(ISERROR(AVERAGE(AA5,AZ5)),"",AVERAGE(AA5,AZ5))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C20" t="str">
+        <f>IF(ISERROR(AVERAGE(C6,AB6)),"",AVERAGE(C6,AB6))</f>
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>664</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="7"/>
+        <v>655.5</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="8"/>
+        <v>5784.5</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="9"/>
+        <v>1218</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="10"/>
+        <v>10015</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="11"/>
+        <v>596.5</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="12"/>
+        <v>664</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="13"/>
+        <v>1253</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="14"/>
+        <v>730</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="15"/>
+        <v>878.5</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="16"/>
+        <v>600.5</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="17"/>
+        <v>672</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="18"/>
+        <v>656.5</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="19"/>
+        <v>522.5</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="20"/>
+        <v>1085.5</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="21"/>
+        <v>654.5</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="22"/>
+        <v>2347</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="23"/>
+        <v>3313</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="24"/>
+        <v>1259.5</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="25"/>
+        <v>7010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="C29" t="e">
+        <f>AVERAGE(C20:C26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" t="e">
+        <f t="shared" ref="D29:AA29" si="26">AVERAGE(D20:D26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="26"/>
+        <v>664</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="26"/>
+        <v>655.5</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="26"/>
+        <v>5784.5</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="26"/>
+        <v>1218</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="26"/>
+        <v>10015</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="26"/>
+        <v>596.5</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="26"/>
+        <v>664</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="26"/>
+        <v>1253</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="26"/>
+        <v>730</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="26"/>
+        <v>878.5</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="26"/>
+        <v>600.5</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="26"/>
+        <v>672</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="26"/>
+        <v>656.5</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="26"/>
+        <v>522.5</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="26"/>
+        <v>1085.5</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="26"/>
+        <v>654.5</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="26"/>
+        <v>2347</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="26"/>
+        <v>3313</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="26"/>
+        <v>1259.5</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="26"/>
+        <v>7010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="C30" t="str">
+        <f>IF(ISERROR(AVERAGE(C18:C26)),"",C29)</f>
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" ref="D30:AA30" si="27">IF(ISERROR(AVERAGE(D18:D26)),"",D29)</f>
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="H30">
+        <f t="shared" si="27"/>
+        <v>664</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="27"/>
+        <v>655.5</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="27"/>
+        <v>5784.5</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="27"/>
+        <v>1218</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="27"/>
+        <v>10015</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="27"/>
+        <v>596.5</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="27"/>
+        <v>664</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="27"/>
+        <v>1253</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="27"/>
+        <v>730</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="27"/>
+        <v>878.5</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="27"/>
+        <v>600.5</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="27"/>
+        <v>672</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="27"/>
+        <v>656.5</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="27"/>
+        <v>522.5</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="27"/>
+        <v>1085.5</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="27"/>
+        <v>654.5</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="27"/>
+        <v>2347</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="27"/>
+        <v>3313</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="27"/>
+        <v>1259.5</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="27"/>
+        <v>7010</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="C38" t="str">
+        <f>target!C38</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="D38" t="str">
+        <f>target!D38</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="E38" t="str">
+        <f>target!E38</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="F38" t="str">
+        <f>target!F38</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="G38" t="str">
+        <f>target!G38</f>
+        <v>Amplitude 48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" t="str">
+        <f>target!B39</f>
+        <v>WL 800</v>
+      </c>
+      <c r="C39" t="str">
+        <f>G30</f>
+        <v/>
+      </c>
+      <c r="D39">
+        <f>AA30</f>
+        <v>7010</v>
+      </c>
+      <c r="E39">
+        <f>L30</f>
+        <v>10015</v>
+      </c>
+      <c r="F39">
+        <f>Q30</f>
+        <v>878.5</v>
+      </c>
+      <c r="G39">
+        <f>V30</f>
+        <v>1085.5</v>
+      </c>
+      <c r="I39">
+        <f>AVERAGE(C39:G39)</f>
+        <v>4747.25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" t="str">
+        <f>target!B40</f>
+        <v>WL 400</v>
+      </c>
+      <c r="C40" t="str">
+        <f>E30</f>
+        <v/>
+      </c>
+      <c r="D40">
+        <f>Y30</f>
+        <v>3313</v>
+      </c>
+      <c r="E40">
+        <f>J30</f>
+        <v>5784.5</v>
+      </c>
+      <c r="F40">
+        <f>O30</f>
+        <v>1253</v>
+      </c>
+      <c r="G40">
+        <f>T30</f>
+        <v>656.5</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40:I43" si="28">AVERAGE(C40:G40)</f>
+        <v>2751.75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" t="str">
+        <f>target!B41</f>
+        <v>WL 200</v>
+      </c>
+      <c r="C41" t="str">
+        <f>D30</f>
+        <v/>
+      </c>
+      <c r="D41">
+        <f>X30</f>
+        <v>2347</v>
+      </c>
+      <c r="E41">
+        <f>I30</f>
+        <v>655.5</v>
+      </c>
+      <c r="F41">
+        <f>N30</f>
+        <v>664</v>
+      </c>
+      <c r="G41">
+        <f>S30</f>
+        <v>672</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="28"/>
+        <v>1084.625</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" t="str">
+        <f>target!B42</f>
+        <v>WL 100</v>
+      </c>
+      <c r="C42" t="str">
+        <f>C30</f>
+        <v/>
+      </c>
+      <c r="D42">
+        <f>W30</f>
+        <v>654.5</v>
+      </c>
+      <c r="E42">
+        <f>H30</f>
+        <v>664</v>
+      </c>
+      <c r="F42">
+        <f>M30</f>
+        <v>596.5</v>
+      </c>
+      <c r="G42">
+        <f>R30</f>
+        <v>600.5</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="28"/>
+        <v>628.875</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" t="str">
+        <f>target!B43</f>
+        <v>WL 50</v>
+      </c>
+      <c r="C43" t="str">
+        <f>F30</f>
+        <v/>
+      </c>
+      <c r="D43">
+        <f>Z30</f>
+        <v>1259.5</v>
+      </c>
+      <c r="E43">
+        <f>K30</f>
+        <v>1218</v>
+      </c>
+      <c r="F43">
+        <f>P30</f>
+        <v>730</v>
+      </c>
+      <c r="G43">
+        <f>U30</f>
+        <v>522.5</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="28"/>
+        <v>932.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="D45">
+        <f t="shared" ref="D45:G45" si="29">AVERAGE(D39:D43)</f>
+        <v>2916.8</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="29"/>
+        <v>3667.4</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="29"/>
+        <v>824.4</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="29"/>
+        <v>707.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D39:G43 I39:I43 D45:G45">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AZ6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:52">
+      <c r="C1" t="str">
+        <f>time!C1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="D1" t="str">
+        <f>time!D1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="E1" t="str">
+        <f>time!E1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="F1" t="str">
+        <f>time!F1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="G1" t="str">
+        <f>time!G1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="H1" t="str">
+        <f>time!H1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="I1" t="str">
+        <f>time!I1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="J1" t="str">
+        <f>time!J1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="K1" t="str">
+        <f>time!K1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="L1" t="str">
+        <f>time!L1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="M1" t="str">
+        <f>time!M1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="N1" t="str">
+        <f>time!N1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="O1" t="str">
+        <f>time!O1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="P1" t="str">
+        <f>time!P1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>time!Q1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="R1" t="str">
+        <f>time!R1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="S1" t="str">
+        <f>time!S1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="T1" t="str">
+        <f>time!T1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="U1" t="str">
+        <f>time!U1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="V1" t="str">
+        <f>time!V1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="W1" t="str">
+        <f>time!W1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="X1" t="str">
+        <f>time!X1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="Y1" t="str">
+        <f>time!Y1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="Z1" t="str">
+        <f>time!Z1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="AA1" t="str">
+        <f>time!AA1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="AB1" t="str">
+        <f>time!AB1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AC1" t="str">
+        <f>time!AC1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AD1" t="str">
+        <f>time!AD1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AE1" t="str">
+        <f>time!AE1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AF1" t="str">
+        <f>time!AF1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AG1" t="str">
+        <f>time!AG1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AH1" t="str">
+        <f>time!AH1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AI1" t="str">
+        <f>time!AI1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AJ1" t="str">
+        <f>time!AJ1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AK1" t="str">
+        <f>time!AK1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AL1" t="str">
+        <f>time!AL1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AM1" t="str">
+        <f>time!AM1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AN1" t="str">
+        <f>time!AN1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AO1" t="str">
+        <f>time!AO1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AP1" t="str">
+        <f>time!AP1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AQ1" t="str">
+        <f>time!AQ1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AR1" t="str">
+        <f>time!AR1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AS1" t="str">
+        <f>time!AS1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AT1" t="str">
+        <f>time!AT1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AU1" t="str">
+        <f>time!AU1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AV1" t="str">
+        <f>time!AV1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AW1" t="str">
+        <f>time!AW1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AX1" t="str">
+        <f>time!AX1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AY1" t="str">
+        <f>time!AY1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AZ1" t="str">
+        <f>time!AZ1</f>
+        <v>Repetition 1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52">
+      <c r="C2" t="str">
+        <f>time!C2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="D2" t="str">
+        <f>time!D2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="E2" t="str">
+        <f>time!E2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="F2" t="str">
+        <f>time!F2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="G2" t="str">
+        <f>time!G2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="H2" t="str">
+        <f>time!H2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="I2" t="str">
+        <f>time!I2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="J2" t="str">
+        <f>time!J2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="K2" t="str">
+        <f>time!K2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="L2" t="str">
+        <f>time!L2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="M2" t="str">
+        <f>time!M2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="N2" t="str">
+        <f>time!N2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="O2" t="str">
+        <f>time!O2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="P2" t="str">
+        <f>time!P2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>time!Q2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="R2" t="str">
+        <f>time!R2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="S2" t="str">
+        <f>time!S2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="T2" t="str">
+        <f>time!T2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="U2" t="str">
+        <f>time!U2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="V2" t="str">
+        <f>time!V2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="W2" t="str">
+        <f>time!W2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="X2" t="str">
+        <f>time!X2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="Y2" t="str">
+        <f>time!Y2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="Z2" t="str">
+        <f>time!Z2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AA2" t="str">
+        <f>time!AA2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>time!AB2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AC2" t="str">
+        <f>time!AC2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AD2" t="str">
+        <f>time!AD2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AE2" t="str">
+        <f>time!AE2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AF2" t="str">
+        <f>time!AF2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AG2" t="str">
+        <f>time!AG2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AH2" t="str">
+        <f>time!AH2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AI2" t="str">
+        <f>time!AI2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AJ2" t="str">
+        <f>time!AJ2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AK2" t="str">
+        <f>time!AK2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AL2" t="str">
+        <f>time!AL2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AM2" t="str">
+        <f>time!AM2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AN2" t="str">
+        <f>time!AN2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AO2" t="str">
+        <f>time!AO2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AP2" t="str">
+        <f>time!AP2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AQ2" t="str">
+        <f>time!AQ2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AR2" t="str">
+        <f>time!AR2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AS2" t="str">
+        <f>time!AS2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AT2" t="str">
+        <f>time!AT2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AU2" t="str">
+        <f>time!AU2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AV2" t="str">
+        <f>time!AV2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AW2" t="str">
+        <f>time!AW2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AX2" t="str">
+        <f>time!AX2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AY2" t="str">
+        <f>time!AY2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AZ2" t="str">
+        <f>time!AZ2</f>
+        <v>Amplitude 6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52">
+      <c r="C3" t="str">
+        <f>time!C3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="D3" t="str">
+        <f>time!D3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="E3" t="str">
+        <f>time!E3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="F3" t="str">
+        <f>time!F3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="G3" t="str">
+        <f>time!G3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="H3" t="str">
+        <f>time!H3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="I3" t="str">
+        <f>time!I3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="J3" t="str">
+        <f>time!J3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="K3" t="str">
+        <f>time!K3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="L3" t="str">
+        <f>time!L3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="M3" t="str">
+        <f>time!M3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="N3" t="str">
+        <f>time!N3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="O3" t="str">
+        <f>time!O3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="P3" t="str">
+        <f>time!P3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>time!Q3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="R3" t="str">
+        <f>time!R3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="S3" t="str">
+        <f>time!S3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="T3" t="str">
+        <f>time!T3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="U3" t="str">
+        <f>time!U3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="V3" t="str">
+        <f>time!V3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="W3" t="str">
+        <f>time!W3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="X3" t="str">
+        <f>time!X3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="Y3" t="str">
+        <f>time!Y3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="Z3" t="str">
+        <f>time!Z3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AA3" t="str">
+        <f>time!AA3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AB3" t="str">
+        <f>time!AB3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AC3" t="str">
+        <f>time!AC3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AD3" t="str">
+        <f>time!AD3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AE3" t="str">
+        <f>time!AE3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AF3" t="str">
+        <f>time!AF3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AG3" t="str">
+        <f>time!AG3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AH3" t="str">
+        <f>time!AH3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AI3" t="str">
+        <f>time!AI3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f>time!AJ3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AK3" t="str">
+        <f>time!AK3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AL3" t="str">
+        <f>time!AL3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AM3" t="str">
+        <f>time!AM3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AN3" t="str">
+        <f>time!AN3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AO3" t="str">
+        <f>time!AO3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AP3" t="str">
+        <f>time!AP3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f>time!AQ3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AR3" t="str">
+        <f>time!AR3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AS3" t="str">
+        <f>time!AS3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AT3" t="str">
+        <f>time!AT3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AU3" t="str">
+        <f>time!AU3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AV3" t="str">
+        <f>time!AV3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AW3" t="str">
+        <f>time!AW3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AX3" t="str">
+        <f>time!AX3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AY3" t="str">
+        <f>time!AY3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AZ3" t="str">
+        <f>time!AZ3</f>
+        <v>WL 800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
+      <c r="A4">
+        <f>target!A5</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
+        <v>-1</v>
+      </c>
+      <c r="AD4">
+        <v>-1</v>
+      </c>
+      <c r="AE4">
+        <v>-1</v>
+      </c>
+      <c r="AF4">
+        <v>-1</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+      <c r="AH4">
+        <v>3</v>
+      </c>
+      <c r="AI4">
+        <v>3</v>
+      </c>
+      <c r="AJ4">
+        <v>5</v>
+      </c>
+      <c r="AK4">
+        <v>2</v>
+      </c>
+      <c r="AL4">
+        <v>5</v>
+      </c>
+      <c r="AM4">
+        <v>4</v>
+      </c>
+      <c r="AN4">
+        <v>2</v>
+      </c>
+      <c r="AO4">
+        <v>4</v>
+      </c>
+      <c r="AP4">
+        <v>2</v>
+      </c>
+      <c r="AQ4">
+        <v>3</v>
+      </c>
+      <c r="AR4">
+        <v>4</v>
+      </c>
+      <c r="AS4">
+        <v>5</v>
+      </c>
+      <c r="AT4">
+        <v>2</v>
+      </c>
+      <c r="AU4">
+        <v>2</v>
+      </c>
+      <c r="AV4">
+        <v>3</v>
+      </c>
+      <c r="AW4">
+        <v>3</v>
+      </c>
+      <c r="AX4">
+        <v>-1</v>
+      </c>
+      <c r="AY4">
+        <v>3</v>
+      </c>
+      <c r="AZ4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="A5">
+        <f>target!A6</f>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
+        <v>-1</v>
+      </c>
+      <c r="AD5">
+        <v>-1</v>
+      </c>
+      <c r="AE5">
+        <v>-1</v>
+      </c>
+      <c r="AF5">
+        <v>-1</v>
+      </c>
+      <c r="AG5">
+        <v>4</v>
+      </c>
+      <c r="AH5">
+        <v>3</v>
+      </c>
+      <c r="AI5">
+        <v>3</v>
+      </c>
+      <c r="AJ5">
+        <v>5</v>
+      </c>
+      <c r="AK5">
+        <v>-1</v>
+      </c>
+      <c r="AL5">
+        <v>5</v>
+      </c>
+      <c r="AM5">
+        <v>5</v>
+      </c>
+      <c r="AN5">
+        <v>5</v>
+      </c>
+      <c r="AO5">
+        <v>5</v>
+      </c>
+      <c r="AP5">
+        <v>4</v>
+      </c>
+      <c r="AQ5">
+        <v>4</v>
+      </c>
+      <c r="AR5">
+        <v>5</v>
+      </c>
+      <c r="AS5">
+        <v>5</v>
+      </c>
+      <c r="AT5">
+        <v>2</v>
+      </c>
+      <c r="AU5">
+        <v>3</v>
+      </c>
+      <c r="AV5">
+        <v>5</v>
+      </c>
+      <c r="AW5">
+        <v>3</v>
+      </c>
+      <c r="AX5">
+        <v>3</v>
+      </c>
+      <c r="AY5">
+        <v>5</v>
+      </c>
+      <c r="AZ5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6">
+        <f>target!A7</f>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>-1</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
+        <v>-1</v>
+      </c>
+      <c r="AD6">
+        <v>-1</v>
+      </c>
+      <c r="AE6">
+        <v>-1</v>
+      </c>
+      <c r="AF6">
+        <v>-1</v>
+      </c>
+      <c r="AG6">
+        <v>3</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>3</v>
+      </c>
+      <c r="AJ6">
+        <v>3</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>4</v>
+      </c>
+      <c r="AM6">
+        <v>3</v>
+      </c>
+      <c r="AN6">
+        <v>3</v>
+      </c>
+      <c r="AO6">
+        <v>4</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>5</v>
+      </c>
+      <c r="AR6">
+        <v>4</v>
+      </c>
+      <c r="AS6">
+        <v>3</v>
+      </c>
+      <c r="AT6">
+        <v>5</v>
+      </c>
+      <c r="AU6">
+        <v>3</v>
+      </c>
+      <c r="AV6">
+        <v>3</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>2</v>
+      </c>
+      <c r="AY6">
+        <v>4</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AZ44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52">
+      <c r="A1">
+        <f>annoyance!A1</f>
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>annoyance!B1</f>
+        <v>0</v>
+      </c>
+      <c r="C1" t="str">
+        <f>annoyance!C1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="D1" t="str">
+        <f>annoyance!D1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="E1" t="str">
+        <f>annoyance!E1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="F1" t="str">
+        <f>annoyance!F1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="G1" t="str">
+        <f>annoyance!G1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="H1" t="str">
+        <f>annoyance!H1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="I1" t="str">
+        <f>annoyance!I1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="J1" t="str">
+        <f>annoyance!J1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="K1" t="str">
+        <f>annoyance!K1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="L1" t="str">
+        <f>annoyance!L1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="M1" t="str">
+        <f>annoyance!M1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="N1" t="str">
+        <f>annoyance!N1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="O1" t="str">
+        <f>annoyance!O1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="P1" t="str">
+        <f>annoyance!P1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>annoyance!Q1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="R1" t="str">
+        <f>annoyance!R1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="S1" t="str">
+        <f>annoyance!S1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="T1" t="str">
+        <f>annoyance!T1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="U1" t="str">
+        <f>annoyance!U1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="V1" t="str">
+        <f>annoyance!V1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="W1" t="str">
+        <f>annoyance!W1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="X1" t="str">
+        <f>annoyance!X1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="Y1" t="str">
+        <f>annoyance!Y1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="Z1" t="str">
+        <f>annoyance!Z1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="AA1" t="str">
+        <f>annoyance!AA1</f>
+        <v>Repetition 0</v>
+      </c>
+      <c r="AB1" t="str">
+        <f>annoyance!AB1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AC1" t="str">
+        <f>annoyance!AC1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AD1" t="str">
+        <f>annoyance!AD1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AE1" t="str">
+        <f>annoyance!AE1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AF1" t="str">
+        <f>annoyance!AF1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AG1" t="str">
+        <f>annoyance!AG1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AH1" t="str">
+        <f>annoyance!AH1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AI1" t="str">
+        <f>annoyance!AI1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AJ1" t="str">
+        <f>annoyance!AJ1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AK1" t="str">
+        <f>annoyance!AK1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AL1" t="str">
+        <f>annoyance!AL1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AM1" t="str">
+        <f>annoyance!AM1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AN1" t="str">
+        <f>annoyance!AN1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AO1" t="str">
+        <f>annoyance!AO1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AP1" t="str">
+        <f>annoyance!AP1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AQ1" t="str">
+        <f>annoyance!AQ1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AR1" t="str">
+        <f>annoyance!AR1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AS1" t="str">
+        <f>annoyance!AS1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AT1" t="str">
+        <f>annoyance!AT1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AU1" t="str">
+        <f>annoyance!AU1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AV1" t="str">
+        <f>annoyance!AV1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AW1" t="str">
+        <f>annoyance!AW1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AX1" t="str">
+        <f>annoyance!AX1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AY1" t="str">
+        <f>annoyance!AY1</f>
+        <v>Repetition 1</v>
+      </c>
+      <c r="AZ1" t="str">
+        <f>annoyance!AZ1</f>
+        <v>Repetition 1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52">
+      <c r="A2">
+        <f>annoyance!A2</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>annoyance!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <f>annoyance!C2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="D2" t="str">
+        <f>annoyance!D2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="E2" t="str">
+        <f>annoyance!E2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="F2" t="str">
+        <f>annoyance!F2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="G2" t="str">
+        <f>annoyance!G2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="H2" t="str">
+        <f>annoyance!H2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="I2" t="str">
+        <f>annoyance!I2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="J2" t="str">
+        <f>annoyance!J2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="K2" t="str">
+        <f>annoyance!K2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="L2" t="str">
+        <f>annoyance!L2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="M2" t="str">
+        <f>annoyance!M2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="N2" t="str">
+        <f>annoyance!N2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="O2" t="str">
+        <f>annoyance!O2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="P2" t="str">
+        <f>annoyance!P2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>annoyance!Q2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="R2" t="str">
+        <f>annoyance!R2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="S2" t="str">
+        <f>annoyance!S2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="T2" t="str">
+        <f>annoyance!T2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="U2" t="str">
+        <f>annoyance!U2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="V2" t="str">
+        <f>annoyance!V2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="W2" t="str">
+        <f>annoyance!W2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="X2" t="str">
+        <f>annoyance!X2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="Y2" t="str">
+        <f>annoyance!Y2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="Z2" t="str">
+        <f>annoyance!Z2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AA2" t="str">
+        <f>annoyance!AA2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>annoyance!AB2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AC2" t="str">
+        <f>annoyance!AC2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AD2" t="str">
+        <f>annoyance!AD2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AE2" t="str">
+        <f>annoyance!AE2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AF2" t="str">
+        <f>annoyance!AF2</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="AG2" t="str">
+        <f>annoyance!AG2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AH2" t="str">
+        <f>annoyance!AH2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AI2" t="str">
+        <f>annoyance!AI2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AJ2" t="str">
+        <f>annoyance!AJ2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AK2" t="str">
+        <f>annoyance!AK2</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="AL2" t="str">
+        <f>annoyance!AL2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AM2" t="str">
+        <f>annoyance!AM2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AN2" t="str">
+        <f>annoyance!AN2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AO2" t="str">
+        <f>annoyance!AO2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AP2" t="str">
+        <f>annoyance!AP2</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="AQ2" t="str">
+        <f>annoyance!AQ2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AR2" t="str">
+        <f>annoyance!AR2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AS2" t="str">
+        <f>annoyance!AS2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AT2" t="str">
+        <f>annoyance!AT2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AU2" t="str">
+        <f>annoyance!AU2</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="AV2" t="str">
+        <f>annoyance!AV2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AW2" t="str">
+        <f>annoyance!AW2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AX2" t="str">
+        <f>annoyance!AX2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AY2" t="str">
+        <f>annoyance!AY2</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AZ2" t="str">
+        <f>annoyance!AZ2</f>
+        <v>Amplitude 6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52">
+      <c r="A3">
+        <f>annoyance!A3</f>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>annoyance!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <f>annoyance!C3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="D3" t="str">
+        <f>annoyance!D3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="E3" t="str">
+        <f>annoyance!E3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="F3" t="str">
+        <f>annoyance!F3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="G3" t="str">
+        <f>annoyance!G3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="H3" t="str">
+        <f>annoyance!H3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="I3" t="str">
+        <f>annoyance!I3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="J3" t="str">
+        <f>annoyance!J3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="K3" t="str">
+        <f>annoyance!K3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="L3" t="str">
+        <f>annoyance!L3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="M3" t="str">
+        <f>annoyance!M3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="N3" t="str">
+        <f>annoyance!N3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="O3" t="str">
+        <f>annoyance!O3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="P3" t="str">
+        <f>annoyance!P3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>annoyance!Q3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="R3" t="str">
+        <f>annoyance!R3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="S3" t="str">
+        <f>annoyance!S3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="T3" t="str">
+        <f>annoyance!T3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="U3" t="str">
+        <f>annoyance!U3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="V3" t="str">
+        <f>annoyance!V3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="W3" t="str">
+        <f>annoyance!W3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="X3" t="str">
+        <f>annoyance!X3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="Y3" t="str">
+        <f>annoyance!Y3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="Z3" t="str">
+        <f>annoyance!Z3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AA3" t="str">
+        <f>annoyance!AA3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AB3" t="str">
+        <f>annoyance!AB3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AC3" t="str">
+        <f>annoyance!AC3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AD3" t="str">
+        <f>annoyance!AD3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AE3" t="str">
+        <f>annoyance!AE3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AF3" t="str">
+        <f>annoyance!AF3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AG3" t="str">
+        <f>annoyance!AG3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AH3" t="str">
+        <f>annoyance!AH3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AI3" t="str">
+        <f>annoyance!AI3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f>annoyance!AJ3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AK3" t="str">
+        <f>annoyance!AK3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AL3" t="str">
+        <f>annoyance!AL3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AM3" t="str">
+        <f>annoyance!AM3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AN3" t="str">
+        <f>annoyance!AN3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AO3" t="str">
+        <f>annoyance!AO3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AP3" t="str">
+        <f>annoyance!AP3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f>annoyance!AQ3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AR3" t="str">
+        <f>annoyance!AR3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AS3" t="str">
+        <f>annoyance!AS3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AT3" t="str">
+        <f>annoyance!AT3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AU3" t="str">
+        <f>annoyance!AU3</f>
+        <v>WL 800</v>
+      </c>
+      <c r="AV3" t="str">
+        <f>annoyance!AV3</f>
+        <v>WL 100</v>
+      </c>
+      <c r="AW3" t="str">
+        <f>annoyance!AW3</f>
+        <v>WL 200</v>
+      </c>
+      <c r="AX3" t="str">
+        <f>annoyance!AX3</f>
+        <v>WL 400</v>
+      </c>
+      <c r="AY3" t="str">
+        <f>annoyance!AY3</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AZ3" t="str">
+        <f>annoyance!AZ3</f>
+        <v>WL 800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
+      <c r="A4">
+        <f>annoyance!A4</f>
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <f>IF(annoyance!C4&gt;0,annoyance!C4,"")</f>
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(annoyance!D4&gt;0,annoyance!D4,"")</f>
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(annoyance!E4&gt;0,annoyance!E4,"")</f>
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(annoyance!F4&gt;0,annoyance!F4,"")</f>
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(annoyance!G4&gt;0,annoyance!G4,"")</f>
+        <v/>
+      </c>
+      <c r="H4">
+        <f>IF(annoyance!H4&gt;0,annoyance!H4,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>IF(annoyance!I4&gt;0,annoyance!I4,"")</f>
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <f>IF(annoyance!J4&gt;0,annoyance!J4,"")</f>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f>IF(annoyance!K4&gt;0,annoyance!K4,"")</f>
+        <v>4</v>
+      </c>
+      <c r="L4" t="str">
+        <f>IF(annoyance!L4&gt;0,annoyance!L4,"")</f>
+        <v/>
+      </c>
+      <c r="M4">
+        <f>IF(annoyance!M4&gt;0,annoyance!M4,"")</f>
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <f>IF(annoyance!N4&gt;0,annoyance!N4,"")</f>
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <f>IF(annoyance!O4&gt;0,annoyance!O4,"")</f>
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <f>IF(annoyance!P4&gt;0,annoyance!P4,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f>IF(annoyance!Q4&gt;0,annoyance!Q4,"")</f>
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f>IF(annoyance!R4&gt;0,annoyance!R4,"")</f>
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <f>IF(annoyance!S4&gt;0,annoyance!S4,"")</f>
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <f>IF(annoyance!T4&gt;0,annoyance!T4,"")</f>
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <f>IF(annoyance!U4&gt;0,annoyance!U4,"")</f>
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <f>IF(annoyance!V4&gt;0,annoyance!V4,"")</f>
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <f>IF(annoyance!W4&gt;0,annoyance!W4,"")</f>
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <f>IF(annoyance!X4&gt;0,annoyance!X4,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <f>IF(annoyance!Y4&gt;0,annoyance!Y4,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <f>IF(annoyance!Z4&gt;0,annoyance!Z4,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <f>IF(annoyance!AA4&gt;0,annoyance!AA4,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AB4" t="str">
+        <f>IF(annoyance!AB4&gt;0,annoyance!AB4,"")</f>
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <f>IF(annoyance!AC4&gt;0,annoyance!AC4,"")</f>
+        <v/>
+      </c>
+      <c r="AD4" t="str">
+        <f>IF(annoyance!AD4&gt;0,annoyance!AD4,"")</f>
+        <v/>
+      </c>
+      <c r="AE4" t="str">
+        <f>IF(annoyance!AE4&gt;0,annoyance!AE4,"")</f>
+        <v/>
+      </c>
+      <c r="AF4" t="str">
+        <f>IF(annoyance!AF4&gt;0,annoyance!AF4,"")</f>
+        <v/>
+      </c>
+      <c r="AG4">
+        <f>IF(annoyance!AG4&gt;0,annoyance!AG4,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AH4">
+        <f>IF(annoyance!AH4&gt;0,annoyance!AH4,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AI4">
+        <f>IF(annoyance!AI4&gt;0,annoyance!AI4,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AJ4">
+        <f>IF(annoyance!AJ4&gt;0,annoyance!AJ4,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AK4">
+        <f>IF(annoyance!AK4&gt;0,annoyance!AK4,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AL4">
+        <f>IF(annoyance!AL4&gt;0,annoyance!AL4,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AM4">
+        <f>IF(annoyance!AM4&gt;0,annoyance!AM4,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AN4">
+        <f>IF(annoyance!AN4&gt;0,annoyance!AN4,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AO4">
+        <f>IF(annoyance!AO4&gt;0,annoyance!AO4,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AP4">
+        <f>IF(annoyance!AP4&gt;0,annoyance!AP4,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AQ4">
+        <f>IF(annoyance!AQ4&gt;0,annoyance!AQ4,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AR4">
+        <f>IF(annoyance!AR4&gt;0,annoyance!AR4,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AS4">
+        <f>IF(annoyance!AS4&gt;0,annoyance!AS4,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AT4">
+        <f>IF(annoyance!AT4&gt;0,annoyance!AT4,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AU4">
+        <f>IF(annoyance!AU4&gt;0,annoyance!AU4,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AV4">
+        <f>IF(annoyance!AV4&gt;0,annoyance!AV4,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AW4">
+        <f>IF(annoyance!AW4&gt;0,annoyance!AW4,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AX4" t="str">
+        <f>IF(annoyance!AX4&gt;0,annoyance!AX4,"")</f>
+        <v/>
+      </c>
+      <c r="AY4">
+        <f>IF(annoyance!AY4&gt;0,annoyance!AY4,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AZ4" t="str">
+        <f>IF(annoyance!AZ4&gt;0,annoyance!AZ4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="A5">
+        <f>annoyance!A5</f>
+        <v>2</v>
+      </c>
+      <c r="C5" t="str">
+        <f>IF(annoyance!C5&gt;0,annoyance!C5,"")</f>
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(annoyance!D5&gt;0,annoyance!D5,"")</f>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(annoyance!E5&gt;0,annoyance!E5,"")</f>
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(annoyance!F5&gt;0,annoyance!F5,"")</f>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(annoyance!G5&gt;0,annoyance!G5,"")</f>
+        <v/>
+      </c>
+      <c r="H5">
+        <f>IF(annoyance!H5&gt;0,annoyance!H5,"")</f>
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f>IF(annoyance!I5&gt;0,annoyance!I5,"")</f>
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f>IF(annoyance!J5&gt;0,annoyance!J5,"")</f>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f>IF(annoyance!K5&gt;0,annoyance!K5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <f>IF(annoyance!L5&gt;0,annoyance!L5,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>IF(annoyance!M5&gt;0,annoyance!M5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <f>IF(annoyance!N5&gt;0,annoyance!N5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <f>IF(annoyance!O5&gt;0,annoyance!O5,"")</f>
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <f>IF(annoyance!P5&gt;0,annoyance!P5,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f>IF(annoyance!Q5&gt;0,annoyance!Q5,"")</f>
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <f>IF(annoyance!R5&gt;0,annoyance!R5,"")</f>
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <f>IF(annoyance!S5&gt;0,annoyance!S5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <f>IF(annoyance!T5&gt;0,annoyance!T5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <f>IF(annoyance!U5&gt;0,annoyance!U5,"")</f>
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <f>IF(annoyance!V5&gt;0,annoyance!V5,"")</f>
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <f>IF(annoyance!W5&gt;0,annoyance!W5,"")</f>
+        <v>3</v>
+      </c>
+      <c r="X5" t="str">
+        <f>IF(annoyance!X5&gt;0,annoyance!X5,"")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>IF(annoyance!Y5&gt;0,annoyance!Y5,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <f>IF(annoyance!Z5&gt;0,annoyance!Z5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA5" t="str">
+        <f>IF(annoyance!AA5&gt;0,annoyance!AA5,"")</f>
+        <v/>
+      </c>
+      <c r="AB5" t="str">
+        <f>IF(annoyance!AB5&gt;0,annoyance!AB5,"")</f>
+        <v/>
+      </c>
+      <c r="AC5" t="str">
+        <f>IF(annoyance!AC5&gt;0,annoyance!AC5,"")</f>
+        <v/>
+      </c>
+      <c r="AD5" t="str">
+        <f>IF(annoyance!AD5&gt;0,annoyance!AD5,"")</f>
+        <v/>
+      </c>
+      <c r="AE5" t="str">
+        <f>IF(annoyance!AE5&gt;0,annoyance!AE5,"")</f>
+        <v/>
+      </c>
+      <c r="AF5" t="str">
+        <f>IF(annoyance!AF5&gt;0,annoyance!AF5,"")</f>
+        <v/>
+      </c>
+      <c r="AG5">
+        <f>IF(annoyance!AG5&gt;0,annoyance!AG5,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AH5">
+        <f>IF(annoyance!AH5&gt;0,annoyance!AH5,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AI5">
+        <f>IF(annoyance!AI5&gt;0,annoyance!AI5,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AJ5">
+        <f>IF(annoyance!AJ5&gt;0,annoyance!AJ5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AK5" t="str">
+        <f>IF(annoyance!AK5&gt;0,annoyance!AK5,"")</f>
+        <v/>
+      </c>
+      <c r="AL5">
+        <f>IF(annoyance!AL5&gt;0,annoyance!AL5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AM5">
+        <f>IF(annoyance!AM5&gt;0,annoyance!AM5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AN5">
+        <f>IF(annoyance!AN5&gt;0,annoyance!AN5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AO5">
+        <f>IF(annoyance!AO5&gt;0,annoyance!AO5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AP5">
+        <f>IF(annoyance!AP5&gt;0,annoyance!AP5,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AQ5">
+        <f>IF(annoyance!AQ5&gt;0,annoyance!AQ5,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AR5">
+        <f>IF(annoyance!AR5&gt;0,annoyance!AR5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AS5">
+        <f>IF(annoyance!AS5&gt;0,annoyance!AS5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AT5">
+        <f>IF(annoyance!AT5&gt;0,annoyance!AT5,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AU5">
+        <f>IF(annoyance!AU5&gt;0,annoyance!AU5,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AV5">
+        <f>IF(annoyance!AV5&gt;0,annoyance!AV5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AW5">
+        <f>IF(annoyance!AW5&gt;0,annoyance!AW5,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AX5">
+        <f>IF(annoyance!AX5&gt;0,annoyance!AX5,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AY5">
+        <f>IF(annoyance!AY5&gt;0,annoyance!AY5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AZ5" t="str">
+        <f>IF(annoyance!AZ5&gt;0,annoyance!AZ5,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6">
+        <f>annoyance!A6</f>
+        <v>3</v>
+      </c>
+      <c r="C6" t="str">
+        <f>IF(annoyance!C6&gt;0,annoyance!C6,"")</f>
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(annoyance!D6&gt;0,annoyance!D6,"")</f>
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(annoyance!E6&gt;0,annoyance!E6,"")</f>
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(annoyance!F6&gt;0,annoyance!F6,"")</f>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(annoyance!G6&gt;0,annoyance!G6,"")</f>
+        <v/>
+      </c>
+      <c r="H6">
+        <f>IF(annoyance!H6&gt;0,annoyance!H6,"")</f>
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <f>IF(annoyance!I6&gt;0,annoyance!I6,"")</f>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f>IF(annoyance!J6&gt;0,annoyance!J6,"")</f>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f>IF(annoyance!K6&gt;0,annoyance!K6,"")</f>
+        <v>5</v>
+      </c>
+      <c r="L6" t="str">
+        <f>IF(annoyance!L6&gt;0,annoyance!L6,"")</f>
+        <v/>
+      </c>
+      <c r="M6">
+        <f>IF(annoyance!M6&gt;0,annoyance!M6,"")</f>
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <f>IF(annoyance!N6&gt;0,annoyance!N6,"")</f>
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <f>IF(annoyance!O6&gt;0,annoyance!O6,"")</f>
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <f>IF(annoyance!P6&gt;0,annoyance!P6,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <f>IF(annoyance!Q6&gt;0,annoyance!Q6,"")</f>
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <f>IF(annoyance!R6&gt;0,annoyance!R6,"")</f>
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <f>IF(annoyance!S6&gt;0,annoyance!S6,"")</f>
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <f>IF(annoyance!T6&gt;0,annoyance!T6,"")</f>
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <f>IF(annoyance!U6&gt;0,annoyance!U6,"")</f>
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <f>IF(annoyance!V6&gt;0,annoyance!V6,"")</f>
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <f>IF(annoyance!W6&gt;0,annoyance!W6,"")</f>
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <f>IF(annoyance!X6&gt;0,annoyance!X6,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y6" t="str">
+        <f>IF(annoyance!Y6&gt;0,annoyance!Y6,"")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>IF(annoyance!Z6&gt;0,annoyance!Z6,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AA6" t="str">
+        <f>IF(annoyance!AA6&gt;0,annoyance!AA6,"")</f>
+        <v/>
+      </c>
+      <c r="AB6" t="str">
+        <f>IF(annoyance!AB6&gt;0,annoyance!AB6,"")</f>
+        <v/>
+      </c>
+      <c r="AC6" t="str">
+        <f>IF(annoyance!AC6&gt;0,annoyance!AC6,"")</f>
+        <v/>
+      </c>
+      <c r="AD6" t="str">
+        <f>IF(annoyance!AD6&gt;0,annoyance!AD6,"")</f>
+        <v/>
+      </c>
+      <c r="AE6" t="str">
+        <f>IF(annoyance!AE6&gt;0,annoyance!AE6,"")</f>
+        <v/>
+      </c>
+      <c r="AF6" t="str">
+        <f>IF(annoyance!AF6&gt;0,annoyance!AF6,"")</f>
+        <v/>
+      </c>
+      <c r="AG6">
+        <f>IF(annoyance!AG6&gt;0,annoyance!AG6,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AH6">
+        <f>IF(annoyance!AH6&gt;0,annoyance!AH6,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <f>IF(annoyance!AI6&gt;0,annoyance!AI6,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AJ6">
+        <f>IF(annoyance!AJ6&gt;0,annoyance!AJ6,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AK6">
+        <f>IF(annoyance!AK6&gt;0,annoyance!AK6,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <f>IF(annoyance!AL6&gt;0,annoyance!AL6,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AM6">
+        <f>IF(annoyance!AM6&gt;0,annoyance!AM6,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AN6">
+        <f>IF(annoyance!AN6&gt;0,annoyance!AN6,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AO6">
+        <f>IF(annoyance!AO6&gt;0,annoyance!AO6,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AP6">
+        <f>IF(annoyance!AP6&gt;0,annoyance!AP6,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <f>IF(annoyance!AQ6&gt;0,annoyance!AQ6,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AR6">
+        <f>IF(annoyance!AR6&gt;0,annoyance!AR6,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AS6">
+        <f>IF(annoyance!AS6&gt;0,annoyance!AS6,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AT6">
+        <f>IF(annoyance!AT6&gt;0,annoyance!AT6,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AU6">
+        <f>IF(annoyance!AU6&gt;0,annoyance!AU6,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AV6">
+        <f>IF(annoyance!AV6&gt;0,annoyance!AV6,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AW6">
+        <f>IF(annoyance!AW6&gt;0,annoyance!AW6,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <f>IF(annoyance!AX6&gt;0,annoyance!AX6,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AY6">
+        <f>IF(annoyance!AY6&gt;0,annoyance!AY6,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AZ6">
+        <f>IF(annoyance!AZ6&gt;0,annoyance!AZ6,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="A7">
+        <f>annoyance!A7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="C16" t="str">
+        <f>target!C16</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="D16" t="str">
+        <f>target!D16</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="E16" t="str">
+        <f>target!E16</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="F16" t="str">
+        <f>target!F16</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="G16" t="str">
+        <f>target!G16</f>
+        <v>Amplitude 0</v>
+      </c>
+      <c r="H16" t="str">
+        <f>target!H16</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="I16" t="str">
+        <f>target!I16</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="J16" t="str">
+        <f>target!J16</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="K16" t="str">
+        <f>target!K16</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="L16" t="str">
+        <f>target!L16</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="M16" t="str">
+        <f>target!M16</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="N16" t="str">
+        <f>target!N16</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="O16" t="str">
+        <f>target!O16</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="P16" t="str">
+        <f>target!P16</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>target!Q16</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="R16" t="str">
+        <f>target!R16</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="S16" t="str">
+        <f>target!S16</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="T16" t="str">
+        <f>target!T16</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="U16" t="str">
+        <f>target!U16</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="V16" t="str">
+        <f>target!V16</f>
+        <v>Amplitude 48</v>
+      </c>
+      <c r="W16" t="str">
+        <f>target!W16</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="X16" t="str">
+        <f>target!X16</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="Y16" t="str">
+        <f>target!Y16</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="Z16" t="str">
+        <f>target!Z16</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="AA16" t="str">
+        <f>target!AA16</f>
+        <v>Amplitude 6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="C17" t="str">
+        <f>target!C17</f>
+        <v>WL 100</v>
+      </c>
+      <c r="D17" t="str">
+        <f>target!D17</f>
+        <v>WL 200</v>
+      </c>
+      <c r="E17" t="str">
+        <f>target!E17</f>
+        <v>WL 400</v>
+      </c>
+      <c r="F17" t="str">
+        <f>target!F17</f>
+        <v>WL 50</v>
+      </c>
+      <c r="G17" t="str">
+        <f>target!G17</f>
+        <v>WL 800</v>
+      </c>
+      <c r="H17" t="str">
+        <f>target!H17</f>
+        <v>WL 100</v>
+      </c>
+      <c r="I17" t="str">
+        <f>target!I17</f>
+        <v>WL 200</v>
+      </c>
+      <c r="J17" t="str">
+        <f>target!J17</f>
+        <v>WL 400</v>
+      </c>
+      <c r="K17" t="str">
+        <f>target!K17</f>
+        <v>WL 50</v>
+      </c>
+      <c r="L17" t="str">
+        <f>target!L17</f>
+        <v>WL 800</v>
+      </c>
+      <c r="M17" t="str">
+        <f>target!M17</f>
+        <v>WL 100</v>
+      </c>
+      <c r="N17" t="str">
+        <f>target!N17</f>
+        <v>WL 200</v>
+      </c>
+      <c r="O17" t="str">
+        <f>target!O17</f>
+        <v>WL 400</v>
+      </c>
+      <c r="P17" t="str">
+        <f>target!P17</f>
+        <v>WL 50</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>target!Q17</f>
+        <v>WL 800</v>
+      </c>
+      <c r="R17" t="str">
+        <f>target!R17</f>
+        <v>WL 100</v>
+      </c>
+      <c r="S17" t="str">
+        <f>target!S17</f>
+        <v>WL 200</v>
+      </c>
+      <c r="T17" t="str">
+        <f>target!T17</f>
+        <v>WL 400</v>
+      </c>
+      <c r="U17" t="str">
+        <f>target!U17</f>
+        <v>WL 50</v>
+      </c>
+      <c r="V17" t="str">
+        <f>target!V17</f>
+        <v>WL 800</v>
+      </c>
+      <c r="W17" t="str">
+        <f>target!W17</f>
+        <v>WL 100</v>
+      </c>
+      <c r="X17" t="str">
+        <f>target!X17</f>
+        <v>WL 200</v>
+      </c>
+      <c r="Y17" t="str">
+        <f>target!Y17</f>
+        <v>WL 400</v>
+      </c>
+      <c r="Z17" t="str">
+        <f>target!Z17</f>
+        <v>WL 50</v>
+      </c>
+      <c r="AA17" t="str">
+        <f>target!AA17</f>
+        <v>WL 800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18">
+        <f>A4</f>
+        <v>1</v>
+      </c>
+      <c r="C18" t="str">
+        <f>IF(ISERROR(AVERAGE(C4,AB4)),"",AVERAGE(C4,AB4))</f>
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" ref="D18:AA18" si="0">IF(ISERROR(AVERAGE(D4,AC4)),"",AVERAGE(D4,AC4))</f>
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19">
+        <f t="shared" ref="A19:A20" si="1">A5</f>
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" ref="C19:C20" si="2">IF(ISERROR(AVERAGE(C5,AB5)),"",AVERAGE(C5,AB5))</f>
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19:D21" si="3">IF(ISERROR(AVERAGE(D5,AC5)),"",AVERAGE(D5,AC5))</f>
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" ref="E19:E21" si="4">IF(ISERROR(AVERAGE(E5,AD5)),"",AVERAGE(E5,AD5))</f>
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" ref="F19:F21" si="5">IF(ISERROR(AVERAGE(F5,AE5)),"",AVERAGE(F5,AE5))</f>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" ref="G19:G21" si="6">IF(ISERROR(AVERAGE(G5,AF5)),"",AVERAGE(G5,AF5))</f>
+        <v/>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H21" si="7">IF(ISERROR(AVERAGE(H5,AG5)),"",AVERAGE(H5,AG5))</f>
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I21" si="8">IF(ISERROR(AVERAGE(I5,AH5)),"",AVERAGE(I5,AH5))</f>
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J21" si="9">IF(ISERROR(AVERAGE(J5,AI5)),"",AVERAGE(J5,AI5))</f>
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K21" si="10">IF(ISERROR(AVERAGE(K5,AJ5)),"",AVERAGE(K5,AJ5))</f>
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L21" si="11">IF(ISERROR(AVERAGE(L5,AK5)),"",AVERAGE(L5,AK5))</f>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M21" si="12">IF(ISERROR(AVERAGE(M5,AL5)),"",AVERAGE(M5,AL5))</f>
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N21" si="13">IF(ISERROR(AVERAGE(N5,AM5)),"",AVERAGE(N5,AM5))</f>
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O21" si="14">IF(ISERROR(AVERAGE(O5,AN5)),"",AVERAGE(O5,AN5))</f>
+        <v>4.5</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19:P21" si="15">IF(ISERROR(AVERAGE(P5,AO5)),"",AVERAGE(P5,AO5))</f>
+        <v>4.5</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19:Q21" si="16">IF(ISERROR(AVERAGE(Q5,AP5)),"",AVERAGE(Q5,AP5))</f>
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19:R21" si="17">IF(ISERROR(AVERAGE(R5,AQ5)),"",AVERAGE(R5,AQ5))</f>
+        <v>3.5</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ref="S19:S21" si="18">IF(ISERROR(AVERAGE(S5,AR5)),"",AVERAGE(S5,AR5))</f>
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ref="T19:T21" si="19">IF(ISERROR(AVERAGE(T5,AS5)),"",AVERAGE(T5,AS5))</f>
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ref="U19:U21" si="20">IF(ISERROR(AVERAGE(U5,AT5)),"",AVERAGE(U5,AT5))</f>
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ref="V19:V21" si="21">IF(ISERROR(AVERAGE(V5,AU5)),"",AVERAGE(V5,AU5))</f>
+        <v>2.5</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ref="W19:W21" si="22">IF(ISERROR(AVERAGE(W5,AV5)),"",AVERAGE(W5,AV5))</f>
+        <v>4</v>
+      </c>
+      <c r="X19">
+        <f t="shared" ref="X19:X21" si="23">IF(ISERROR(AVERAGE(X5,AW5)),"",AVERAGE(X5,AW5))</f>
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" ref="Y19:Y21" si="24">IF(ISERROR(AVERAGE(Y5,AX5)),"",AVERAGE(Y5,AX5))</f>
+        <v>2</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" ref="Z19:Z21" si="25">IF(ISERROR(AVERAGE(Z5,AY5)),"",AVERAGE(Z5,AY5))</f>
+        <v>5</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" ref="AA19:AA21" si="26">IF(ISERROR(AVERAGE(AA5,AZ5)),"",AVERAGE(AA5,AZ5))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="15"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="C21" t="str">
+        <f>IF(ISERROR(AVERAGE(C7,AB7)),"",AVERAGE(C7,AB7))</f>
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="C31" t="e">
+        <f>AVERAGE(C20:C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" t="e">
+        <f t="shared" ref="D31:AA31" si="27">AVERAGE(D20:D27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="27"/>
+        <v>2.5</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="27"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="27"/>
+        <v>1.5</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="C37" t="str">
+        <f>target!D38</f>
+        <v>Amplitude 6</v>
+      </c>
+      <c r="D37" t="str">
+        <f>target!E38</f>
+        <v>Amplitude 12</v>
+      </c>
+      <c r="E37" t="str">
+        <f>target!F38</f>
+        <v>Amplitude 24</v>
+      </c>
+      <c r="F37" t="str">
+        <f>target!G38</f>
+        <v>Amplitude 48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" t="str">
+        <f>target!B39</f>
+        <v>WL 800</v>
+      </c>
+      <c r="C38">
+        <f>AA31</f>
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f>L31</f>
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <f>Q31</f>
+        <v>1.5</v>
+      </c>
+      <c r="F38">
+        <f>V31</f>
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <f>AVERAGE(C38:F38)</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" t="str">
+        <f>target!B40</f>
+        <v>WL 400</v>
+      </c>
+      <c r="C39">
+        <f>Y31</f>
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <f>J31</f>
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <f>O31</f>
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <f>T31</f>
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H42" si="28">AVERAGE(C39:F39)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" t="str">
+        <f>target!B41</f>
+        <v>WL 200</v>
+      </c>
+      <c r="C40">
+        <f>X31</f>
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <f>I31</f>
+        <v>2.5</v>
+      </c>
+      <c r="E40">
+        <f>N31</f>
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <f>S31</f>
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="28"/>
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" t="str">
+        <f>target!B42</f>
+        <v>WL 100</v>
+      </c>
+      <c r="C41">
+        <f>W31</f>
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <f>H31</f>
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <f>M31</f>
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <f>R31</f>
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" t="str">
+        <f>target!B43</f>
+        <v>WL 50</v>
+      </c>
+      <c r="C42">
+        <f>Z31</f>
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <f>K31</f>
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <f>P31</f>
+        <v>4.5</v>
+      </c>
+      <c r="F42">
+        <f>U31</f>
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="28"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="C44">
+        <f>AVERAGE(C38:C42)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:F44" si="29">AVERAGE(D38:D42)</f>
+        <v>2.7</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="29"/>
+        <v>3.2</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C38:F42 C44:F44 H38:H42">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UnityProject/results_pilot2.xlsx
+++ b/UnityProject/results_pilot2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="132" windowWidth="24240" windowHeight="12708" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="132" windowWidth="24240" windowHeight="12708"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3160,8 +3160,8 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <f>AVERAGE(C39:G39)</f>
-        <v>0.6</v>
+        <f>AVERAGE(D39:G39)</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -3190,8 +3190,8 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <f t="shared" ref="I40:I43" si="62">AVERAGE(C40:G40)</f>
-        <v>0.7</v>
+        <f t="shared" ref="I40:I43" si="62">AVERAGE(D40:G40)</f>
+        <v>0.875</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="I41">
         <f t="shared" si="62"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="I42">
         <f t="shared" si="62"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="I43">
         <f t="shared" si="62"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -4599,8 +4599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="C29" t="e">
-        <f>AVERAGE(C20:C26)</f>
+        <f>AVERAGE(C18:C26)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D29" t="e">
@@ -8879,8 +8879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
